--- a/Kopenhaga_miejsca_odnosniki.xlsx
+++ b/Kopenhaga_miejsca_odnosniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB726DA-FFDA-46D7-8B77-001A6C09874A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621457F8-838A-448D-9B0F-6B4D2B629F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="385">
   <si>
     <t>Miejsce</t>
   </si>
@@ -61,108 +61,309 @@
     <t>summ</t>
   </si>
   <si>
+    <t>Kondita Park</t>
+  </si>
+  <si>
+    <t>The Little Mermaid statue</t>
+  </si>
+  <si>
+    <t>Amalienborg Palace</t>
+  </si>
+  <si>
+    <t>Copenhagen Zoo</t>
+  </si>
+  <si>
+    <t>Tower Round</t>
+  </si>
+  <si>
+    <t>Rødhusplassen (City Hall Square)</t>
+  </si>
+  <si>
+    <t>Rosenborg Palace</t>
+  </si>
+  <si>
+    <t>Christiansborg Palace</t>
+  </si>
+  <si>
+    <t>Torve Hallerne</t>
+  </si>
+  <si>
+    <t>Gardens Botanical and Garden Rose</t>
+  </si>
+  <si>
+    <t>Glyptoteket Museum</t>
+  </si>
+  <si>
+    <t>National Museum of Denmark</t>
+  </si>
+  <si>
+    <t>Warpix</t>
+  </si>
+  <si>
+    <t>Reffen</t>
+  </si>
+  <si>
+    <t>Amager Nature Park</t>
+  </si>
+  <si>
+    <t>Frederiksberg Garden</t>
+  </si>
+  <si>
+    <t>Muzeum designu</t>
+  </si>
+  <si>
+    <t>Sklep Lego</t>
+  </si>
+  <si>
+    <t>Botanical Gardens</t>
+  </si>
+  <si>
+    <t>Nyham</t>
+  </si>
+  <si>
+    <t>Paludan Cafe</t>
+  </si>
+  <si>
+    <t>The Dubliner (Irish Pub)</t>
+  </si>
+  <si>
+    <t>Hall Food Tivoli</t>
+  </si>
+  <si>
+    <t>Gasoline Grill</t>
+  </si>
+  <si>
+    <t>Bruns Gadekøkken</t>
+  </si>
+  <si>
+    <t>Ophelia Plads</t>
+  </si>
+  <si>
+    <t>Kottbühlen's Fiske Bar</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Mikkeller</t>
+  </si>
+  <si>
+    <t>Absalon</t>
+  </si>
+  <si>
+    <t>MAD in the Cafe</t>
+  </si>
+  <si>
+    <t>Kastellet (The Citadel)</t>
+  </si>
+  <si>
+    <t>Bibliothek Town</t>
+  </si>
+  <si>
+    <t>Fountain Gefion</t>
+  </si>
+  <si>
+    <t>Baste Restaurant</t>
+  </si>
+  <si>
+    <t>Juno the Bakery</t>
+  </si>
+  <si>
+    <t>Hija de Sanchez</t>
+  </si>
+  <si>
+    <t>St. Peter's Bakery</t>
+  </si>
+  <si>
+    <t>Coffee Collective</t>
+  </si>
+  <si>
+    <t>Heart Bakery</t>
+  </si>
+  <si>
+    <t>Biblioteka Królewska</t>
+  </si>
+  <si>
+    <t>Pate Pate</t>
+  </si>
+  <si>
+    <t>Prolog</t>
+  </si>
+  <si>
+    <t>Street Shopping Stroget</t>
+  </si>
+  <si>
+    <t>Buka Bakery</t>
+  </si>
+  <si>
+    <t>Atelier September</t>
+  </si>
+  <si>
+    <t>Lille Bakery</t>
+  </si>
+  <si>
+    <t>Hans Christian Andersen house at 20 Nyhavn</t>
+  </si>
+  <si>
+    <t>Killer Kebab</t>
+  </si>
+  <si>
+    <t>Original Coffee</t>
+  </si>
+  <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>Nyboder</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=wECPA_rMTK4', 'https://www.youtube.com/watch?v=LVtI_ih6Xe4', 'https://www.youtube.com/watch?v=f496mkCAGjc', 'https://www.youtube.com/watch?v=2sCyec6xelk', 'https://www.youtube.com/watch?v=SdjRzF-jhOQ', 'https://www.youtube.com/watch?v=-17fdkwxaQ0&amp;t=495s', 'https://www.youtube.com/watch?v=iQKu0ocG8CE', 'https://www.youtube.com/watch?v=9aZyYBJZKHY', 'https://www.youtube.com/watch?v=LkHztUGllkc', 'https://www.youtube.com/watch?v=lCZLfPSDhkg', 'https://www.youtube.com/watch?v=Dh8bUy4MW4o']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=f496mkCAGjc', 'https://www.youtube.com/watch?v=lCZLfPSDhkg', 'https://www.youtube.com/watch?v=2sCyec6xelk']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=LVtI_ih6Xe4', 'https://www.youtube.com/watch?v=f496mkCAGjc', 'https://www.youtube.com/watch?v=gWwEnRq2u7g&amp;t=1452s', 'https://www.youtube.com/watch?v=2sCyec6xelk', 'https://www.youtube.com/watch?v=teggqYG9Y4Q', 'https://www.youtube.com/watch?v=lCZLfPSDhkg']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=LkHztUGllkc']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=teggqYG9Y4Q', 'https://www.youtube.com/watch?v=f496mkCAGjc', 'https://www.youtube.com/watch?v=wECPA_rMTK4']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=LVtI_ih6Xe4']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=wECPA_rMTK4', 'https://www.youtube.com/watch?v=LVtI_ih6Xe4', 'https://www.youtube.com/watch?v=f496mkCAGjc', 'https://www.youtube.com/watch?v=gWwEnRq2u7g&amp;t=1452s', 'https://www.youtube.com/watch?v=LkHztUGllkc']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=-17fdkwxaQ0&amp;t=495s', 'https://www.youtube.com/watch?v=LVtI_ih6Xe4', 'https://www.youtube.com/watch?v=f496mkCAGjc', 'https://www.youtube.com/watch?v=LkHztUGllkc']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=EyA-9iAAPl0', 'https://www.youtube.com/watch?v=LVtI_ih6Xe4', 'https://www.youtube.com/watch?v=gWwEnRq2u7g&amp;t=1452s']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=LVtI_ih6Xe4', 'https://www.youtube.com/watch?v=f496mkCAGjc']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=-17fdkwxaQ0&amp;t=495s', 'https://www.youtube.com/watch?v=f496mkCAGjc']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=EyA-9iAAPl0', 'https://www.youtube.com/watch?v=Dh8bUy4MW4o', 'https://www.youtube.com/watch?v=gWwEnRq2u7g&amp;t=1452s']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=SdjRzF-jhOQ']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=9aZyYBJZKHY']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=iQKu0ocG8CE']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=-17fdkwxaQ0&amp;t=495s', 'https://www.youtube.com/watch?v=iQKu0ocG8CE']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=LVtI_ih6Xe4', 'https://www.youtube.com/watch?v=gWwEnRq2u7g&amp;t=1452s', 'https://www.youtube.com/watch?v=2sCyec6xelk', 'https://www.youtube.com/watch?v=SdjRzF-jhOQ', 'https://www.youtube.com/watch?v=teggqYG9Y4Q', 'https://www.youtube.com/watch?v=iQKu0ocG8CE', 'https://www.youtube.com/watch?v=LkHztUGllkc', 'https://www.youtube.com/watch?v=lCZLfPSDhkg', 'https://www.youtube.com/watch?v=Dh8bUy4MW4o']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=-17fdkwxaQ0&amp;t=495s']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=2sCyec6xelk']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=f496mkCAGjc']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=2sCyec6xelk', 'https://www.youtube.com/watch?v=Dh8bUy4MW4o']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=8e8WmBA9b_k&amp;t=1022s', 'https://www.youtube.com/watch?v=gWwEnRq2u7g&amp;t=1452s']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=Dh8bUy4MW4o']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=-17fdkwxaQ0&amp;t=495s', 'https://www.youtube.com/watch?v=gWwEnRq2u7g&amp;t=1452s']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=gWwEnRq2u7g&amp;t=1452s']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=LVtI_ih6Xe4', 'https://www.youtube.com/watch?v=lCZLfPSDhkg']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=EyA-9iAAPl0']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=-17fdkwxaQ0&amp;t=495s', 'https://www.youtube.com/watch?v=18jJs47z_yc', 'https://www.youtube.com/watch?v=EyA-9iAAPl0']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=18jJs47z_yc']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=8e8WmBA9b_k&amp;t=1022s', 'https://www.youtube.com/watch?v=SdjRzF-jhOQ']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=in6Fbl9VFrc']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=-17fdkwxaQ0&amp;t=495s', 'https://www.youtube.com/watch?v=18jJs47z_yc']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=lCZLfPSDhkg']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=8e8WmBA9b_k&amp;t=1022s']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=eb4skzD61A4', 'https://www.youtube.com/watch?v=eb4skzD61A4', 'https://www.youtube.com/watch?v=eb4skzD61A4', 'https://www.youtube.com/watch?v=eb4skzD61A4', 'https://www.youtube.com/watch?v=eb4skzD61A4']</t>
+  </si>
+  <si>
     <t>Ogrody Tivoli</t>
   </si>
   <si>
-    <t>The Little Mermaid Statue</t>
-  </si>
-  <si>
-    <t>Cluschenborg Palace</t>
-  </si>
-  <si>
-    <t>Copenhagen Zoo</t>
+    <t>Mała Syrenka</t>
+  </si>
+  <si>
+    <t>Amalienborg</t>
   </si>
   <si>
     <t>The Round Tower</t>
   </si>
   <si>
-    <t>Rosenborg Museum</t>
-  </si>
-  <si>
-    <t>King's Palace</t>
-  </si>
-  <si>
-    <t>National Museum of Denmark</t>
-  </si>
-  <si>
-    <t>Muzeum designu</t>
-  </si>
-  <si>
-    <t>Sklep Lego</t>
-  </si>
-  <si>
-    <t>Botanical Gardens</t>
-  </si>
-  <si>
-    <t>Nyham</t>
-  </si>
-  <si>
-    <t>Absalon</t>
-  </si>
-  <si>
-    <t>Royal Library Gardens</t>
-  </si>
-  <si>
-    <t>Pistolsfjall Passage</t>
-  </si>
-  <si>
-    <t>Biblioteka Królewska</t>
-  </si>
-  <si>
-    <t>Copenhagen City Hall</t>
-  </si>
-  <si>
-    <t>Slul Pedestrian Street</t>
-  </si>
-  <si>
-    <t>Buka Bakery</t>
-  </si>
-  <si>
-    <t>Hans Christian Andersen House at 20 Nyhavn</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=lCZLfPSDhkg', 'https://www.youtube.com/watch?v=iQKu0ocG8CE', 'https://www.youtube.com/watch?v=wECPA_rMTK4']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=lCZLfPSDhkg']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=LkHztUGllkc']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=teggqYG9Y4Q', 'https://www.youtube.com/watch?v=wECPA_rMTK4']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=wECPA_rMTK4', 'https://www.youtube.com/watch?v=LkHztUGllkc']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=teggqYG9Y4Q']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=iQKu0ocG8CE']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=gWwEnRq2u7g&amp;t=1452s']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=lCZLfPSDhkg', 'https://www.youtube.com/watch?v=LkHztUGllkc']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=in6Fbl9VFrc']</t>
-  </si>
-  <si>
-    <t>Mała Syrenka</t>
-  </si>
-  <si>
-    <t>Amalienborg</t>
+    <t>City Hall Square</t>
   </si>
   <si>
     <t>Rosenborg</t>
   </si>
   <si>
+    <t>Christiansborg</t>
+  </si>
+  <si>
+    <t>TorvehallerneKBH</t>
+  </si>
+  <si>
     <t>The King's Garden</t>
   </si>
   <si>
+    <t>Ny Carlsberg Glyptotek</t>
+  </si>
+  <si>
+    <t>Warpigs Brewpub</t>
+  </si>
+  <si>
+    <t>Reffen - Copenhagen Street Food</t>
+  </si>
+  <si>
+    <t>Amager Beachpark</t>
+  </si>
+  <si>
+    <t>Frederiksberg Gardens</t>
+  </si>
+  <si>
     <t>Designmuseum Denmark</t>
   </si>
   <si>
@@ -175,27 +376,87 @@
     <t>Nyhavn</t>
   </si>
   <si>
+    <t>Paludan Bog &amp; Café</t>
+  </si>
+  <si>
+    <t>The Dubliner</t>
+  </si>
+  <si>
+    <t>Tivoli Food Hall</t>
+  </si>
+  <si>
+    <t>Broens Street Food</t>
+  </si>
+  <si>
+    <t>Ofelia Plads</t>
+  </si>
+  <si>
+    <t>Kødbyens Fiskebar</t>
+  </si>
+  <si>
+    <t>Høst</t>
+  </si>
+  <si>
+    <t>Mikkeller Bar</t>
+  </si>
+  <si>
     <t>Folkehuset Absalon</t>
   </si>
   <si>
+    <t>Mad &amp; Kaffe</t>
+  </si>
+  <si>
+    <t>Kastellet</t>
+  </si>
+  <si>
     <t>Garden of the Royal Library</t>
   </si>
   <si>
     <t>Gefion Fountain</t>
   </si>
   <si>
+    <t>Bæst</t>
+  </si>
+  <si>
+    <t>Juno the bakery</t>
+  </si>
+  <si>
+    <t>Hija de Sanchez Kødbyen</t>
+  </si>
+  <si>
+    <t>Skt. Peders Bageri</t>
+  </si>
+  <si>
+    <t>Coffee Collective Torvehallerne</t>
+  </si>
+  <si>
+    <t>Hart</t>
+  </si>
+  <si>
     <t>Det Kgl. Bibliotek, The Royal Library</t>
   </si>
   <si>
+    <t>Paté Paté</t>
+  </si>
+  <si>
+    <t>Prolog Coffee Bar Meatpacking District</t>
+  </si>
+  <si>
     <t>Strøgets</t>
   </si>
   <si>
-    <t>BUKA BAKERY</t>
+    <t>BUKA</t>
   </si>
   <si>
     <t>Hans Christian Andersen Experience</t>
   </si>
   <si>
+    <t>Killer Kebab - Vesterbro</t>
+  </si>
+  <si>
+    <t>Loppen</t>
+  </si>
+  <si>
     <t>Vesterbrogade 3, 1630 København V, Dania</t>
   </si>
   <si>
@@ -211,15 +472,39 @@
     <t>Købmagergade 52A, 1150 København, Dania</t>
   </si>
   <si>
+    <t>1599 Copenhagen, Dania</t>
+  </si>
+  <si>
     <t>Øster Voldgade 4A, 1350 København, Dania</t>
   </si>
   <si>
+    <t>Prins Jørgens Gård 1, 1218 København, Dania</t>
+  </si>
+  <si>
+    <t>Frederiksborggade 21, 1362 København, Dania</t>
+  </si>
+  <si>
     <t>Øster Voldgade 4A, 1307 København, Dania</t>
   </si>
   <si>
+    <t>Dantes Plads 7, 1556 København, Dania</t>
+  </si>
+  <si>
     <t>Ny Vestergade 10, 1471 København K, Dania</t>
   </si>
   <si>
+    <t>Flæsketorvet 25-37, 1711 København, Dania</t>
+  </si>
+  <si>
+    <t>Refshalevej 167, 1432 København, Dania</t>
+  </si>
+  <si>
+    <t>Amager Strand Promenaden 1, 2300 København, Dania</t>
+  </si>
+  <si>
+    <t>2000 Frederiksberg, Dania</t>
+  </si>
+  <si>
     <t>Bredgade 68, 1260 København, Dania</t>
   </si>
   <si>
@@ -232,30 +517,102 @@
     <t>Indre By, Dania</t>
   </si>
   <si>
+    <t>Fiolstræde 10, 1171 København, Dania</t>
+  </si>
+  <si>
+    <t>Amagertorv 5, 1160 København, Dania</t>
+  </si>
+  <si>
+    <t>Bernstorffsgade 3, 1577 København, Dania</t>
+  </si>
+  <si>
+    <t>Landgreven 10, 1301 København, Dania</t>
+  </si>
+  <si>
+    <t>Strandgade 95, 1401 København, Dania</t>
+  </si>
+  <si>
+    <t>Kvæsthusbroen, 1250 København, Dania</t>
+  </si>
+  <si>
+    <t>Flæsketorvet 100, 1711 København, Dania</t>
+  </si>
+  <si>
+    <t>Nørre Farimagsgade 41, 1364 København, Dania</t>
+  </si>
+  <si>
+    <t>Viktoriagade 8, B-C, 1655 København, Dania</t>
+  </si>
+  <si>
     <t>Sønder Blvd. 73, 1720 København, Dania</t>
   </si>
   <si>
+    <t>Sønder Blvd. 68, 1720 København V, Dania</t>
+  </si>
+  <si>
+    <t>Gl. Hovedvagt, Kastellet 1, 2100 København, Dania</t>
+  </si>
+  <si>
     <t>Proviantpassagen 1, 1218 København, Dania</t>
   </si>
   <si>
     <t>Churchillparken, 1263 København K, Dania</t>
   </si>
   <si>
+    <t>Guldbergsgade 29, 2200 København, Dania</t>
+  </si>
+  <si>
+    <t>Århusgade 48, 2100 København, Dania</t>
+  </si>
+  <si>
+    <t>Slagterboderne 8, 1716 København, Dania</t>
+  </si>
+  <si>
+    <t>Sankt Peders Stræde 29, 1453 København K, Dania</t>
+  </si>
+  <si>
+    <t>Vendersgade 6D, 1363 København K, Dania</t>
+  </si>
+  <si>
+    <t>Gl. Kongevej 109, 1850 Frederiksberg C, Dania</t>
+  </si>
+  <si>
     <t>Søren Kierkegaards Pl. 1, 1221 København K, Dania</t>
   </si>
   <si>
-    <t>Rådhuspladsen 1, 1553 København, Dania</t>
+    <t>Slagterboderne 1, 1716 København, Dania</t>
+  </si>
+  <si>
+    <t>Høkerboderne 16, 1712 København, Dania</t>
   </si>
   <si>
     <t>Strøget 29, 23, 1164 København, Dania</t>
   </si>
   <si>
-    <t>Frederiksberggade 21, 1459 København, Dania</t>
+    <t>Store Kongensgade 18, 1264 København, Dania</t>
+  </si>
+  <si>
+    <t>Strandvejen 134, 2900 Hellerup, Dania</t>
+  </si>
+  <si>
+    <t>Refshalevej 213B, 1432 København, Dania</t>
   </si>
   <si>
     <t>Rådhuspladsen 57, 1550 København, Dania</t>
   </si>
   <si>
+    <t>Viktoriagade 11, st tv, 1655 København, Dania</t>
+  </si>
+  <si>
+    <t>Østergade 52, 1100 København, Dania</t>
+  </si>
+  <si>
+    <t>Sydområdet 4B, 1, 1440 København, Dania</t>
+  </si>
+  <si>
+    <t>Sankt Pauls Gade 24, 1313 København K, Dania</t>
+  </si>
+  <si>
     <t>Park rozrywki</t>
   </si>
   <si>
@@ -271,12 +628,27 @@
     <t>Obserwatorium</t>
   </si>
   <si>
+    <t>Plac</t>
+  </si>
+  <si>
+    <t>Targ ze świeżymi produktami spożywczymi</t>
+  </si>
+  <si>
     <t>Ogród</t>
   </si>
   <si>
     <t>Muzeum sztuki</t>
   </si>
   <si>
+    <t>Pub</t>
+  </si>
+  <si>
+    <t>Strefa gastronomiczna</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
     <t>Muzeum</t>
   </si>
   <si>
@@ -289,25 +661,52 @@
     <t>Port</t>
   </si>
   <si>
+    <t>Kawiarnia</t>
+  </si>
+  <si>
+    <t>Hamburgery</t>
+  </si>
+  <si>
+    <t>Stowarzyszenie kulturalne</t>
+  </si>
+  <si>
+    <t>Owoce morza</t>
+  </si>
+  <si>
+    <t>Ekskluzywna restauracja</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
     <t>Restauracja</t>
   </si>
   <si>
+    <t>Twierdza</t>
+  </si>
+  <si>
     <t>Fontanna</t>
   </si>
   <si>
+    <t>Piekarnia</t>
+  </si>
+  <si>
+    <t>Kuchnia meksykańska</t>
+  </si>
+  <si>
     <t>Biblioteka</t>
   </si>
   <si>
-    <t>Ratusz</t>
-  </si>
-  <si>
     <t>Zakupy</t>
   </si>
   <si>
-    <t>Cukiernia</t>
-  </si>
-  <si>
     <t>Atrakcja turystyczna</t>
+  </si>
+  <si>
+    <t>Kebab</t>
+  </si>
+  <si>
+    <t>Klub muzyczny</t>
   </si>
   <si>
     <t>XIX-wieczny park rozrywki z zabytkową kolejką górską i programem wydarzeń rozrywkowych na żywo.Tivoli Gardens, known as "Tivoli" in English, is a famous amusement park and pleasure garden in Copenhagen, Denmark. Often simply called "Tivoli," it is one of the oldest operating amusement parks in the world, having opened on August 15, 1843. The park was founded by Georg Carstensen, who reportedly convinced King Christian VIII by saying: "when the people are amusing themselves, they do not think about politics."
@@ -349,6 +748,13 @@
 The Round Tower has been featured in various cultural works and remains a popular tourist attraction due to its historical significance and architectural uniqueness.</t>
   </si>
   <si>
+    <t>Duża otwarta przestrzeń przed ratuszem, na której odbywają się koncerty, wydarzenia kulturalne i uroczystości.City Hall Square, also known as Rådhuspladsen, is a significant public square in the heart of Copenhagen, Denmark. Located at the coordinates 55.67591419999999, 12.5691285, it is situated at the western end of Strøget, which is one of Europe's longest pedestrian streets.
+The square is dominated by the Copenhagen City Hall, an imposing building constructed in the National Romantic style, completed in 1905. The City Hall features a tall clock tower, which is one of the tallest buildings in Copenhagen and offers visitors a panoramic view of the city.
+Rådhuspladsen serves as a central hub for many cultural and social events in Copenhagen. It is often the focal point for demonstrations, celebrations, and public gatherings. Around the square, one can find various shops, restaurants, and cafes, making it a lively spot throughout the day.
+The square is also a key node for transportation; it is well-connected by bus routes and is close to the Copenhagen Central Station, facilitating easy access for both locals and tourists.
+Prominent statues and monuments adorn the square, including those of renowned Danish figures such as Hans Christian Andersen. The presence of historical and modern elements in and around</t>
+  </si>
+  <si>
     <t>Renesansowy holenderski pałac z ogrodem oraz muzeum z klejnotami koronacyjnymi i zwiedzanie z przewodnikiem.Rosenborg Castle (Danish: Rosenborg Slot) is a renaissance castle located in the center of Copenhagen, Denmark. The castle was originally built as a country summerhouse in 1606 and is an example of Christian IV's many architectural projects. It was built in the Dutch Renaissance style, and its design was typical of that era.
 Rosenborg Castle is known for housing some of Denmark’s greatest cultural treasures, primarily the Danish crown jewels and regalia. It features impressive interiors that have been well-preserved and provide a deep insight into the splendor of royal Danish culture in the early 17th century. The castle contains the throne chair of Denmark, which is made of narwhal tusks (often associated with unicorns) and affirms the mythological status of these creatures in ancient times.
 The castle is also known for its beautiful gardens, known as the King's Garden (Kongens Have), which were laid out during the reign of King Christian IV. These gardens are the oldest royal gardens in Denmark and are a popular retreat in the heart of Copenhagen.
@@ -356,11 +762,27 @@
 It is not only a national treasure but also a significant cultural symbol, reflecting the historical narrative of Denmark's monarchy and its evolution over the centuries.</t>
   </si>
   <si>
-    <t>Założone w XVII wieku ogrody oraz park z pawilonami i ścieżkami wśród drzew.The King's Garden, also known as Rosenborg Castle Gardens, is a historic garden located in the heart of Copenhagen, Denmark. This park, which holds the coordinates 55.6852905 latitude and 12.5798452 longitude, is the country’s oldest royal garden and was established in the early 17th century as the private garden of King Christian IV.
-Rosenborg Castle, which is situated within the gardens, was originally built as a country summerhouse in 1606 and is an example of Christian IV's many architectural projects. Over the years, it was expanded and transformed into the castle seen today, completed in 1624. The castle now serves as a museum displaying the Royal Collections, showcasing artifacts like the Crown Jewels and the Danish Crown Regalia.
-The King’s Garden itself spans about 12 hectares and is designed in the Renaissance style, which is reflective of the period during which it was first laid out. It is a popular recreational spot for both locals and tourists, offering a tranquil escape with beautifully maintained lawns, flowerbeds, and historical statues. One standout feature is a statue of Hans Christian Andersen, a nod to Denmark’s rich literary heritage.
-Throughout the year, the King's Garden hosts various events including concerts, art exhibitions, and holiday markets, contributing to its role as a cultural hub in Copenhagen. It is also an important conservation area for a variety of plant species and birds, enhancing its ecological significance within the urban environment. 
-Overall, The King’s Garden serves not only as a historical site connected to Danish royalty but as a beloved public park that provides cultural, recreational, and ecological value to Copenhagen's urban landscape.</t>
+    <t>Udostępnione do zwiedzania bogato zdobione sale reprezentacyjne i stajnie oraz pozostałości zamku z XII wieku.Christiansborg Palace, located on the islet of Slotsholmen in central Copenhagen, Denmark, serves multiple purposes and is a crucial center of governance in Danish political life. It houses the Danish Parliament (Folketinget), the Supreme Court, and the Ministry of State. Additionally, parts of the palace are utilized by the Danish monarch, including the Royal Reception Rooms, the Palace Chapel, and the Royal Stables.
+The site of Christiansborg Palace has a long history of being the locus of power; it has housed various castles and palaces since the 12th century. The current Christiansborg Palace is actually the third to be built on the site. The first palace was constructed by King Christian VI between 1733 and 1745 and was destroyed by fire in 1794. The second palace was erected between 1803 and 1828 but was also consumed by fire in 1884. The present structure was built in stages from 1907 to 1928, designed by Danish architect Thorvald Jørgensen in a neo-baroque style.
+Christiansborg is noteworthy for its architecture and houses significant artworks and decorations. The Royal Reception Rooms are especially rich in decoration and are used for official functions</t>
+  </si>
+  <si>
+    <t>Kryty miejski targ, na którym sprzedawane są lokalne produkty, artykuły spożywcze dla smakoszy, napoje i desery.TorvehallerneKBH, often simply referred to as Torvehallerne, is a modern and popular market hall located in Copenhagen, Denmark. Situated at the coordinates 55.6836899, 12.5697654, near the Nørreport station, it serves as a central hub for both locals and tourists looking to purchase a variety of high-quality fresh food products.
+Opened in September 2011, Torvehallerne spans roughly 7,000 square meters and is divided into two large glass and steel structures (halls) which are separated by an open space that is also utilized for market activities. These halls house over 60 different stalls offering a diverse array of products including fresh seafood, meat, cheeses, baked goods, and gourmet chocolates, as well as a variety of organic and locally-sourced fruits and vegetables.
+In addition to the food stalls, Torvehallerne also features a number of eateries and small restaurants where visitors can enjoy meals prepared from ingredients sourced directly from the market. There is a strong emphasis on quality and freshness, which resonates well with Copenhagen’s culinary reputation.
+The market is not only a place for buying groceries but also serves as a cultural spot where people come to enjoy the vibrant</t>
+  </si>
+  <si>
+    <t>Założone w XVII wieku ogrody oraz park z pawilonami i ścieżkami wśród drzew.The King's Garden, known as Kongens Have in Danish, is located in Copenhagen, Denmark. This public park surrounds Rosenborg Castle and is situated in the central part of the city. The garden was originally established in the early 17th century, making it the oldest park in Copenhagen. It was commissioned by King Christian IV of Denmark, who also played a significant role in the development of many other architectural and landscaped projects in Denmark during his reign.
+The coordinates (55.6852905, 12.5798452) place it in the heart of the city, making it a popular spot not only among tourists but also local residents. Rosenborg Castle, which is situated within the park, is now a museum and houses some of Denmark’s greatest cultural treasures, including the Crown Jewels and the Danish crown regalia.
+The King's Garden is designed in the Renaissance style and spreads over an area of about 12 hectares. It features manicured gardens, large tree-lined paths, and historical statues, offering a peaceful retreat from the urban bustle. Its layout has evolved over the centuries, but it retains a formal structure with broad gravel paths and symmetrical garden sections.
+Throughout the year, the garden serves as a venue for various</t>
+  </si>
+  <si>
+    <t>Muzeum sztuk pięknych z antycznymi rzeźbami z basenu Morza Śródziemnego oraz XIX-wiecznymi dziełami francuskimi i duńskimi.The Ny Carlsberg Glyptotek is an art museum located in Copenhagen, Denmark. It was founded by the brewer Carl Jacobsen, the son of the founder of the Carlsberg Breweries, and is named after his brewery, Ny Carlsberg, with "Glyptotek" meaning collection of sculpture. The museum was officially opened to the public in 1897.
+The Ny Carlsberg Glyptotek houses an extensive collection of sculptures and paintings. It is particularly renowned for its assemblage of antiquities from ancient cultures around the Mediterranean, including Egypt, Rome, and Greece, as well as French and Danish art from the 19th century. The museum's collection includes works by master artists such as Rodin, van Gogh, Monet, and Picasso.
+The architecture of the museum is itself noteworthy, featuring a central winter garden with a picturesque glass dome. This space provides a tranquil, light-filled environment for the display of art and for visitors to enjoy.
+The museum also engages in various research, educational programs, and special exhibitions, making it an important cultural institution in Denmark and an attractive destination for visitors interested in art and history.</t>
   </si>
   <si>
     <t>XVIII-wieczna rezydencja ze zbiorami i wystawami dotyczącymi historii, mieszkańców i kultury Danii.The National Museum of Denmark (Danish: Nationalmuseet) in Copenhagen is Denmark's largest museum of cultural history, comprising the histories of Danish and foreign cultures alike. It is located close to the center of Copenhagen, near the Strøget at Frederiksgade 1.
@@ -369,6 +791,33 @@
 The main building is a classical 18th-century mansion directly adapted for museum purposes. This includes a variety of permanent exhibitions, such as the Danish Prehistory, which highlights artifacts like the famous Sun Chariot (Solwognen), which is more than 2,000 years old and made from bronze.
 The National Museum also offers special exhibitions and activities aimed at families with children, as well as a museum shop and cafe. Additionally, the museum oversees the management of several cultural and historic sites across Denmark including the Open Air Museum in Copenhagen’s suburban area, Frilandsmuseet. This museum provides an experience of how life was lived in Denmark historically, through original buildings from various periods and regions of the country.
 The museum is also a research and educational institution and runs a public library with broad collections related to cultural, archaeological, and ethnographic subjects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warpigs Brewpub is a popular establishment located in Copenhagen, specifically in the vibrant Meatpacking District (Kødbyen) of Vesterbro. It is a collaboration between Mikkeller, a renowned Danish microbrewery, and Three Floyds, an acclaimed American brewery based in Indiana. The brewpub is known for its craft beers and American-style barbecue dishes.
+Warpigs offers a unique selection of craft beers, many of which are brewed on-site. The beer offerings include a diverse range of styles, with frequent new releases that often attract craft beer enthusiasts. The pub's setting in a former meat market adds a distinctive industrial charm to its ambiance, enhancing the overall experience of its patrons.
+The food menu at Warpigs primarily features authentic Texas-style barbecue, prepared and smoked in-house. The menu typically includes a variety of meats such as brisket, pulled pork, and ribs, complemented by traditional sides like coleslaw, beans, and cornbread.
+The atmosphere in Warpigs is casual and laid-back, making it a popular spot for both locals and tourists. The brewpub also hosts various events and has become a notable spot in Copenhagen's craft beer scene.
+Given its partnership between two prominent breweries and its combination of craft</t>
+  </si>
+  <si>
+    <t>Rozległy teren z licznymi stoiskami, przy których można kupić jedzenie z całego świata. Są tam również gry i rozrywka na żywo.Reffen - Copenhagen Street Food is a vibrant and sprawling outdoor food market located in Copenhagen, Denmark. It is situated in a former industrial area in the district of Refshaleøen, which has been transformed into a bustling hub for food enthusiasts and cultural activities.
+The market serves as a creative space where new food entrepreneurs can establish and develop their concepts affordably, emphasizing innovation, organic produce, and local ingredients. The concept of Reffen revolves around sustainability and reducing food waste, aligning with Copenhagen's broader goals of eco-friendliness and responsible tourism.
+Visitors at Reffen can explore a wide array of culinary offerings from around the world, including street food from various cuisines, gourmet snacks, and local delicacies. It's not just about food; the market also hosts a variety of events, including live music, workshops, and cultural celebrations, making it a lively spot for both locals and tourists.
+The outdoor nature of the market makes it a seasonal destination, typically bustling during the warmer months from spring through early autumn. The location is also notable for its views of the Copenhagen harbor and its proximity to other tourist attractions in the area.
+Reffen aims to support small and independent food businesses, providing a platform for new chefs and culinary talents</t>
+  </si>
+  <si>
+    <t>Długa na ponad 4 km sztuczna piaszczysta plaża na wyspie z laguną, stoiskami, kawiarniami i zapleczem sportów lądowych i wodnych.Amager Beach Park, located in Copenhagen, Denmark, is a popular recreational area known for its beaches and facilities. It is situated on the island of Amager and is relatively close to the city center, making it easily accessible for both locals and tourists.
+The park features a long sandy beach and a lagoon, with paths for walking, jogging, and biking. It spans approximately 4.6 kilometers and includes various amenities like beach volleyball courts, kitesurfing areas, and kayaking options. The beach is divided into sections, including areas for swimming and sunbathing.
+In addition to the natural and recreational offerings, Amager Beach Park hosts several facilities such as snack bars, ice cream stands, and public restrooms, making it well-suited for extended visits. The park also provides lifeguard services during the summer months to ensure the safety of visitors.
+The park was developed to provide a beach experience for city dwellers and to enhance the recreational options in Copenhagen. It is highly valued by the community for its contribution to the quality of life in the city and its role in promoting outdoor activities.
+Accessible by both public transport and bike, the park is a hub for various outdoor activities and events throughout the year. Its proximity to Copenhagen Airport</t>
+  </si>
+  <si>
+    <t>Zadbany XVIII-wieczny ogród w stylu angielskim z dekoracyjnymi budynkami, jeziorami, drzewami i trawnikami.Frederiksberg Gardens, located in Copenhagen, Denmark, is an English-style romantic landscape garden. The gardens are one of the largest and most attractive green spaces in Copenhagen, covering about 31 hectares (76 acres). This park is part of the Frederiksberg district and is situated adjacent to the Copenhagen Zoo. 
+The gardens were originally part of the baroque garden laid out by King Frederik IV in connection with Frederiksberg Palace, which overlooks the park from a hilltop. Over time, these gardens have evolved from a formal baroque garden to a romantic landscaped garden. Notably, the garden's original baroque layout was transformed during the reign of King Frederik VI in the early 19th century, adopting the then-popular romantic garden style with winding paths, lakes, and islands.
+Frederiksberg Gardens features a number of distinctive elements including picturesque canals, expansive lawns, and ornamental gardens. It also houses classical features such as statuary and an ornamental Chinese Pavilion, which was added in 1799 as a tea house. In the northeastern corner of the gardens is the Apis Temple, another classical feature added during the Romantic renovations.
+A notable attraction within the gardens is the Småland</t>
   </si>
   <si>
     <t>Muzeum w XVIII-wiecznym budynku w stylu rokoko prezentujące historię duńskiego i międzynarodowego wzornictwa przemysłowego.Designmuseum Denmark, also known as Designmuseum Danmark, is located in Copenhagen, Denmark. It is one of the primary museums in Denmark for Danish and international design. The museum’s collection includes decorative art, crafts, and industrial designs from Europe and Asia from the late Middle Ages to the present.
@@ -399,6 +848,61 @@
 Overall, Nyhavn is not only an essential part of Copenhagen's maritime history but also a lively and enjoyable destination, embodying the city’s vibrant modern-day culture while preserving links to its rich historical past.</t>
   </si>
   <si>
+    <t xml:space="preserve"> Paludan Bog &amp; Café is a popular café and bookstore located in the heart of Copenhagen, Denmark. It is known for its unique combination of bookshop and café, providing a cozy atmosphere where visitors can enjoy a wide selection of books while sipping coffee or eating. The café is often frequented by students, tourists, and locals alike, who appreciate the blend of cultural and culinary experiences.
+The interior of Paludan Bog &amp; Café features shelves lined with books, available for both reading and purchase, which adds to the intellectual and warm ambiance of the space. The menu typically includes a variety of coffee drinks, teas, and light meals such as sandwiches and salads, making it an ideal spot for breakfast, lunch, or a relaxing break during the day.
+Given its central location in Copenhagen, close to universities and cultural landmarks, Paludan Bog &amp; Café serves as a convenient and appealing destination for those looking to enjoy a good book in a welcoming environment. The café also hosts events and readings, contributing further to the cultural life of the city.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "The Dubliner" in Copenhagen is an Irish pub located in the city center, popular among locals and tourists for its authentic Irish pub atmosphere. It is known for offering a variety of beers, including traditional Irish brews, and for hosting live music events, particularly featuring Irish folk music. The pub typically provides a selection of pub food and snacks, and is a favored spot for watching sports events, especially football and rugby, due to the presence of multiple screens.
+Its central location in Copenhagen makes it easily accessible and a convenient gathering spot. The Dubliner is part of a larger chain of Irish pubs which can be found in various cities around Europe, known for maintaining a consistent Irish pub experience.
+The pub is appreciated for its friendly staff and cozy, warm environment, which emulates the feel of a traditional Irish pub, making it a popular choice for both expats looking for a taste of home and locals seeking the unique Irish pub culture.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tivoli Food Hall is located at the mentioned coordinates in Copenhagen, Denmark. It is part of the Tivoli Gardens, which is one of the oldest operating amusement parks in the world, having opened in 1843. The food hall itself is a more recent addition, offering a diverse range of food stands and eateries under one roof. 
+This venue provides visitors with a variety of culinary options ranging from local Danish cuisine to dishes from around the globe. The design of the food hall emphasizes an open and inviting atmosphere, catering to both locals and tourists. The location within Tivoli Gardens adds to its appeal, allowing visitors to combine dining with entertainment.
+Given its placement within Tivoli Gardens, access to the food hall usually requires admission to the park, making it a convenient dining option for those already visiting the attractions. It's a popular spot for both meals and snacks, with options suitable for families, couples, or solo visitors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gasoline Grill is a popular burger restaurant located in Copenhagen, Denmark. Known for its high-quality burgers, the establishment has earned a reputation among both locals and tourists. The restaurant puts a strong emphasis on using fresh, high-quality ingredients to craft their burgers, which has garnered them numerous positive reviews and a loyal following.
+The vibe of Gasoline Grill is often described as cool and minimalistic, with a focus on quick service and delicious food rather than elaborate décor. Despite its simplicity, the place has managed to make a significant impact on the food scene in Copenhagen, often featuring in lists of the best burgers in the city.
+The exact location coordinates of Gasoline Grill are 55.6832682 latitude and 12.585052 longitude, which places it conveniently within the urban area of Copenhagen, accessible for both residents and visitors to the city.
+Please note, while this description provides an overview of Gasoline Grill, specific operational details such as opening hours, menu items, or prices might change and should be checked from official or more current sources.</t>
+  </si>
+  <si>
+    <t>Niezadaszona strefa gastronomiczna z wieloma stoiskami z jedzeniem ulicznym z różnych stron świata oraz piwem, winem i koktajlami.As of my last update, Broens Street Food is a popular street food market located in Copenhagen, Denmark. It is situated in a vibrant area along the Copenhagen harbor front, close to the iconic Inderhavnsbroen, a pedestrian and cycling bridge that connects the city center with the Christianshavn neighborhood.
+Broens Street Food offers a diverse range of food stalls and bars, featuring both local Danish cuisine and international dishes. This makes it a bustling gastronomic hub that attracts both locals and tourists. Visitors can enjoy a variety of foods such as smørrebrød (traditional Danish open sandwiches), seafood, gourmet burgers, vegan options, and more.
+The setting of Broens Street Food is typically informal and lively, with communal seating areas that encourage a communal dining experience. It is also known for its sustainability focus, with an emphasis on local ingredients and environmentally friendly practices.
+The market usually operates seasonally, with peak activity during the warmer months when the waterfront location adds to its appeal, providing beautiful views and a relaxed atmosphere.
+Please check the latest information or their official website for current operating hours, exact location details, and any COVID-19 related restrictions or changes in operation.</t>
+  </si>
+  <si>
+    <t>Na tym molo z barami i food truckami odbywają się koncerty, spektakle i publiczne festyny. Są tam też instalacje artystyczne.Ofelia Plads is a public space located in Copenhagen, Denmark. It is situated along the waterfront near the city center and coordinates with latitude 55.6806986 and longitude 12.5950433. This location was formerly an industrial area and has been transformed into a vibrant cultural hub and recreational area. It is named after a nearby historical theater boat, "Ofelia," and has become a popular gathering spot for various cultural events and activities.
+Ofelia Plads is often used for hosting events, concerts, and performances, especially in the summer months when outdoor activities are more frequent. The area features open spaces that are conducive to both large and small events, making it a versatile venue for cultural activities. The proximity to the water also makes it an attractive location, offering scenic views and a relaxing environment.
+The cultural association linked with Ofelia Plads likely plays a role in organizing and promoting events and activities that take place in this area, fostering cultural engagement and community interaction in Copenhagen.
+Given its central location and the variety of activities it supports, Ofelia Plads is a significant site for cultural and social engagement in Copenhagen, reflecting the city's dedication to promoting arts, culture, and community well-being.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kødbyens Fiskebar, located in Copenhagen, Denmark, is a restaurant specializing in seafood. Situated in the trendy Meatpacking District of Vesterbro (Kødbyen), it offers a dynamic dining experience with a focus on sustainable, high-quality seafood. This area is known for its vibrant nightlife and cultural scene, hosting a variety of restaurants, bars, and galleries.
+The atmosphere at Kødbyens Fiskebar combines the industrial charm of the meatpacking district with a modern, sophisticated touch. Its interior often features minimalist decor with an emphasis on raw materials, which complements the urban feel of the district.
+Kødbyens Fiskebar is well-regarded for its commitment to freshness and quality, sourcing its seafood from local and sustainable fisheries. The menu likely includes a range of seafood dishes, from oysters and shellfish to various fish species, prepared with a Nordic twist. The restaurant might also offer an array of wines and cocktails to pair with the seafood.
+In addition to the food, Kødbyens Fiskebar is known for its friendly and knowledgeable service, providing guests with a memorable dining experience. The restaurant is popular among locals and tourists alike, making it a bustling spot, especially during the evenings.
+</t>
+  </si>
+  <si>
+    <t>Stylowa restauracja z białymi ścianami i rustykalnymi drewnianymi stołami serwująca nowoczesne dania kuchni skandynawskiej.Høst is a well-known restaurant located in Copenhagen, Denmark, renowned for offering an exceptional dining experience that centers around Nordic cuisine. The restaurant is praised for its innovative approach to traditional dishes, highlighting seasonal and locally-sourced ingredients.
+The ambiance at Høst has been widely recognized for its unique blend of rustic and contemporary design elements, enhancing the overall dining experience with a cozy, yet modern Scandinavian aesthetic. This has contributed to its popularity among both locals and tourists.
+Høst has earned accolades for its culinary excellence, including recognition from prestigious award bodies, which has helped to bolster its reputation as a destination for food enthusiasts.
+The restaurant's focus on providing a seasonal menu means that it changes frequently, ensuring that each dining experience can be distinct. Diners at Høst can expect to enjoy not just a meal, but a carefully curated experience that engages all the senses.
+The exact details of the menu offerings and the specific awards received might vary, but the consistent quality and innovative approach to Nordic cuisine are core aspects of the Høst dining experience.</t>
+  </si>
+  <si>
+    <t>Modny lokal serwujący piwa rzemieślnicze z nalewaka warzone przez takie mikrobrowary jak Mikkeler.Mikkeller Bar in Copenhagen is a renowned craft beer bar associated with the Danish microbrewery Mikkeller, established by Mikkel Borg Bjergsø. Known for its extensive selection of craft beers, the bar features a mix of Mikkeller’s own brews along with beers from top international and local breweries.
+Located in the vibrant Vesterbro district, a neighborhood known for its trendy bars and cultural attractions, Mikkeller Bar is a popular destination for beer enthusiasts. The bar's interior is typically Scandinavian, with minimalist decor and a cozy, inviting atmosphere that emphasizes the extensive beer selection.
+Mikkeller itself is famous for its innovative approach to brewing, often experimenting with different flavors and brewing techniques, which is reflected in the unique beer offerings at the bar. They frequently host beer tasting events and launches for new brews, making it a dynamic hub for Copenhagen’s craft beer scene.
+The exact coordinates provided (55.6719123, 12.5575373) pinpoint the location of the bar, making it easily accessible for locals and tourists seeking a distinctive and high-quality beer experience in the heart of Copenhagen.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Folkehuset Absalon is a community house and event space located in the Vesterbro neighborhood of Copenhagen, Denmark. It is not just a restaurant but a versatile community center where people from various backgrounds come together to engage in a range of activities and shared meals.
 Housed in a former church, the space has been repurposed to foster community engagement and provide a relaxed environment for people to meet and interact. The interior retains some elements of its past, with high ceilings and large windows, but is repurposed with colorful furniture and contemporary decor to create a welcoming and informal atmosphere.
 Folkehuset Absalon organizes daily community dinners at an affordable price, where everyone is welcome to join. The meals are simple and served at long communal tables, emphasizing togetherness and conversation over gourmet offerings. Besides dinners, it hosts a variety of activities ranging from yoga and dance to concerts, bingo, and other social gatherings.
@@ -406,6 +910,21 @@
 The venue is also open for events, and people can participate in various scheduled activities throughout the week. It has become a popular spot not only for locals but also for travelers seeking to experience Copenhagen's community vibe.</t>
   </si>
   <si>
+    <t xml:space="preserve"> Mad &amp; Kaffe is a popular cafe located in Copenhagen, Denmark. It is known for its cozy atmosphere and distinctive approach to breakfast and brunch. The cafe offers a unique menu where customers can build their own breakfast by choosing from a selection of small dishes. The options typically include a variety of bread, cheese, meats, vegan alternatives, and sweet treats among others.
+The interior of Mad &amp; Kaffe is stylish and inviting, often featuring rustic and vintage decor elements which add to its charm and appeal. The cafe has gained significant popularity, not only among locals but also among tourists, making it a bustling spot particularly during weekends.
+In addition to its breakfast and brunch selections, Mad &amp; Kaffe also serves a variety of coffees, teas, and other beverages. It is recognized for the quality of its coffee, which complements its meals well.
+Due to its popularity, there can be long waiting times, especially during peak hours, so visitors are often advised to arrive early or be prepared to wait.
+Mad &amp; Kaffe has multiple locations in Copenhagen, and each may have its own unique vibe, but the quality and style of food and beverages remain consistent, which keeps the brand strong and recognizable across the city. It has been featured in various travel and</t>
+  </si>
+  <si>
+    <t>Zbudowana na planie gwiazdy XVII-wieczna twierdza z wałami i muzeum. Odbywają się tu bezpłatne imprezy i koncerty.Kastellet, located in Copenhagen, Denmark, is one of the best-preserved fortresses in Northern Europe. It is situated in the area of Østerbro and is marked by distinctive star-shaped bastions at its corners. This star-shaped fortress was commissioned by Frederik III and was constructed in the mid-17th century.
+The primary purpose of Kastellet was military; it was intended to defend the city of Copenhagen. Over the years, it has maintained its military functions but has also become a popular public park and historical site. The design of the fortress follows the principles of Dutch fortifications with earthen walls and bastions, which were typical of that era.
+Kastellet consists of several noteworthy structures including:
+1. **The Commandant's House**: This is the official residence of the commander and is one of the central buildings in the complex.
+2. **The Church**: Built in the Baroque style, the church is still active today and serves the military community, though it is also open to the public.
+3. **The Windmill**: A striking feature of Kastellet, this windmill dates back to 1847 and replaces an earlier mill that was destroyed. It is one of the</t>
+  </si>
+  <si>
     <t>Zaprojektowany w 1920 roku publiczny ogród z płytką sadzawką pośrodku oraz ścieżkami, ławkami i żywopłotami.The Garden of the Royal Library, known as the "Royal Library Garden" (Det Kongelige Biblioteks Have), is situated in Copenhagen, Denmark. This garden is located between a number of significant buildings, including the Royal Library itself, one of the largest libraries in Scandinavia, and Christiansborg Palace, where the Danish Parliament and the office of the Prime Minister are located.
 The garden features neatly manicured lawns, tree-lined paths, and well-maintained flower beds, making it a popular spot for both tourists and locals looking for a quiet escape in the city. Central to the garden is a notable statue of the famous Danish philosopher Søren Kierkegaard, reflecting Denmark's rich intellectual history.
 This serene park is not just a place for relaxation but also serves as a venue for various cultural events and activities throughout the year. Its location next to the Royal Library allows easy access to one of Denmark's key cultural institutions, which holds extensive collections and often hosts exhibitions and other educational events.
@@ -416,6 +935,41 @@
 The fountain was designed by Danish artist Anders Bundgaard and was constructed in the early 20th century. It was officially inaugurated in 1908. The sculpture depicts the mythological story from Nordic folklore, where the goddess Gefion plows the island of Zealand out of Sweden. According to the myth, the Swedish king Gylfi promised Gefion as much land in Sweden as she could plow in one night. Gefion then transformed her four sons into powerful oxen to plow deep and wide, pulling a piece of land into the sea, which then became Zealand, the largest island of Denmark.
 The fountain itself is quite dramatic, with the powerful figures of the oxen and Gefion, accompanied by jets of water that add to the dynamic effect of the scene. It serves not only as a piece of historical art but also as a symbol of the foundational myth of Zealand.
 Gefion Fountain is often visited by tourists and is well known for its aesthetic and historical significance. It’s particularly popular among photographers due to its dramatic depiction and the play of water and light. The fountain is located in an area that is also famous for other attractions like the nearby Little Mermaid statue, making it part of a popular walking route along the Copenhagen waterfront.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bæst is a popular restaurant located in Copenhagen, Denmark, known for its commitment to organic ingredients and a farm-to-table dining experience. This restaurant is particularly celebrated for its house-made charcuterie, cheeses, and wood-fired pizzas. Bæst makes its own mozzarella and other cheeses at their urban dairy, which can also be observed through a viewing window inside the restaurant.
+The restaurant is part of a larger culinary project by Chef Christian Puglisi, who is also known for Relæ, a Michelin-starred restaurant that emphasizes organic and sustainable cuisine. Bæst follows this philosophy as well, sourcing most of its produce from its own farm, Farm of Ideas, located just outside Copenhagen.
+The menu at Bæst blends Italian culinary traditions with the Nordic emphasis on local and seasonal produce, providing a unique dining experience. The interior is cozy yet buzzing, often packed with locals and tourists alike, attracted by the restaurant's reputation for authentic, high-quality food.
+The commitment to sustainability at Bæst extends beyond food sourcing. The restaurant also emphasizes minimizing waste and maximizing recycling efforts, aligning with broader environmental goals within the industry.
+Bæst is not only a dining spot but a testament to the potential of integrating local farming</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Juno the Bakery is a popular artisan bakery located in Copenhagen, Denmark. It has gained a reputation for its high-quality baked goods and has become a well-loved spot for both locals and tourists. Juno the Bakery is particularly famous for its cardamom buns, which have been praised for their perfect blend of sweetness and spice, making them a must-try for visitors.
+The bakery often has a range of products available, including various types of bread, pastries, and cakes, all made using traditional baking techniques and high-quality ingredients. The cozy and welcoming atmosphere of the bakery adds to its charm, making it a pleasant place to visit for a morning or afternoon treat.
+The exact location of Juno the Bakery in Copenhagen can be found via the coordinates (55.7061815, 12.5818152), which place it in a central part of the city, accessible and easy to locate for those exploring the area.
+Keep in mind, like any popular establishment, there might be queues, especially on weekends or during peak hours, so planning a visit earlier in the day could be beneficial to avoid the rush.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hija de Sanchez is a well-regarded Mexican eatery located in Kødbyen, the Meatpacking District of Copenhagen, Denmark. Founded by Rosio Sanchez, a former pastry chef at Noma (one of the world's leading restaurants), Hija de Sanchez offers authentic Mexican cuisine with a focus on high-quality, fresh ingredients. 
+Rosio Sanchez, being of Mexican descent, brings authentic flavors and culinary techniques to Copenhagen, specializing in tacos and other Mexican dishes. The restaurant sources its corn for tortillas directly from Mexico, ensuring an authentic taste and texture. The menu typically features a variety of tacos, including options such as carnitas, barbacoa, and al pastor, as well as other Mexican staples like quesadillas and freshly made salsas.
+The setting in the trendy Kødbyen area, known for its vibrant nightlife and culinary scene, provides a contemporary and casual atmosphere that is popular with both locals and tourists. The eatery has gained accolades for its quality food and contribution to Copenhagen's diverse food scene. 
+Hija de Sanchez is considered a must-visit for those seeking authentic Mexican cuisine in Copenhagen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Skt. Peders Bageri is a well-known bakery located in Copenhagen, Denmark. It is particularly famous for its traditional Danish breads and pastries. One of the signature items of Skt. Peders Bageri is its "onsdagsnegl," a special cinnamon roll made and sold only on Wednesdays, which has garnered a lot of popularity among both locals and tourists.
+The bakery is situated in the central part of Copenhagen, making it easily accessible for anyone visiting or residing in the city. Skt. Peders Bageri maintains a cozy and inviting atmosphere, which reflects the traditional Danish bakery vibe, combined with a sense of community.
+Historically, the bakery has been serving customers for many years, establishing itself as a staple in the local culinary scene. It also receives high praise for the quality and authenticity of its baked goods, contributing significantly to its reputation as one of the must-visit bakeries in Copenhagen.
+If you were to visit Skt. Peders Bageri, you could expect a range of baked products including various types of bread, pastries, cakes, and cookies, all made using traditional Danish recipes and techniques.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coffee Collective Torvehallerne is a well-known coffee shop located in the Torvehallerne market in Copenhagen, Denmark. This location is one of several operated by The Coffee Collective, a pioneering specialty coffee company in Denmark known for its dedication to quality and sustainability.
+Torvehallerne is a vibrant and bustling market in Copenhagen that features a range of vendors selling everything from fresh produce to gourmet foods. Coffee Collective's outpost here serves as a popular destination for both locals and tourists looking to enjoy high-quality coffee.
+The Coffee Collective is renowned for its direct trade with coffee farmers, ensuring fair compensation to the farmers and high-quality beans for their coffee. They are involved in every step of the coffee-making process, from sourcing the beans to the final brew, focusing on sustainability and ethical practices.
+At their Torvehallerne location, visitors can expect expertly brewed coffee made from beans roasted by Coffee Collective themselves. The offerings typically include espresso-based drinks, filter coffee, and other specialty coffee options. The staff is usually well-informed and passionate about coffee, often willing to discuss their brews, the origins of the beans, and the nuances of coffee tasting.
+The atmosphere at Coffee Collective Torvehallerne is typically modern and minimalistic, consistent with the</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hart Bageri is a local Danish bakery situated at Gl. Kongevej 109, 1850 Frederiksberg C, Denmark. Opened in 2018, it was founded by Richard Hart, the former head baker of San Francisco's Tartine, in partnership with Noma. The bakery offers a variety of items including sourdough bread, rye bread, sandwiches, cakes, cookies, and pastries. They also serve coffee from Square Mile and Prolog and tea from The Rare Tea Company. The bakery is renowned for its fresh, handcrafted batches of bakery items and has gained acclaim from both local and international media. It has a 4.5 out of 5 rating on Tripadvisor and is ranked #7 out of 199 restaurants in Frederiksberg. It is open every day from 07:30-18:00.</t>
   </si>
   <si>
     <t>Biblioteka wystawiająca przedmioty ze swoich zbiorów nazywana „czarnym diamentem” ze względu na nowoczesną architekturę.Det Kgl. Bibliotek, commonly referred to in English as The Royal Library, is situated in Copenhagen, Denmark. This prestigious institution is notable for being Denmark’s national library, as well as the library of the University of Copenhagen. It is recognized as one of the largest libraries in the world and the largest in the Nordic countries.
@@ -432,15 +986,14 @@
 Overall, The Royal Library is a cornerstone institution in Danish society for the preservation, celebration, and promotion of knowledge and culture.</t>
   </si>
   <si>
-    <t>Oprowadzanie po wybudowanym w 1905 roku budynku z bogato zdobioną fasadą i zegarem światowym skonstruowanym przez Jensa Olsena.Copenhagen City Hall (Rådhus) is a central administrative building of the city of Copenhagen, the capital of Denmark. It is situated on City Hall Square (Rådhuspladsen) in central Copenhagen. The hall is an example of the National Romantic style in Denmark and has elements inspired by Italian Renaissance architecture.
-Here are some key details about the Copenhagen City Hall:
-1. **Architecture**: The building was designed by architect Martin Nyrop and was inspired by the city hall in Siena, Italy. It was constructed between 1892 and 1905. The design includes a richly ornamented facade and a tower that is 105.6 meters tall, making it one of the tallest buildings in Copenhagen.
-2. **Interior**: The interior of the city hall is also notable, featuring a grand main hall, intricate woodwork, and decorative elements reflecting the art and culture of Denmark. The building houses various artworks, including sculptures and paintings.
-3. **City Hall Tower**: The tower offers a panoramic view of Copenhagen. It is accessible to the public via guided tours, allowing visitors to see the city from a unique vantage point.
-4. **Clock**: An astronomical clock designed by Jens Olsen is located inside the city hall. This clock is not only a masterpiece of craftsmanship but also an intricate scientific instrument.
-5. **Public Access and Events**: The city hall is not only an administrative building but also a cultural landmark. It is open to the public, and guided tours are available. The square in front of the city hall, Rådhuspladsen, is a popular gathering spot and hosts various events, demonstrations, and celebrations.
-6. **Historical and Cultural Significance**: The city hall is not only significant for its architectural and artistic features but also as a center of civic life in Copenhagen. It has been the locus of numerous historical events and continues to be integral to the city's public and cultural events.
-Copenhagen City Hall is a striking feature of the city's landscape and a focal point for its civic and cultural life.</t>
+    <t>Całodniowa stylowa restauracja serwująca dania w stylu francuskim, hiszpańskim i marokańskim oraz międzynarodowe wina na kieliszki.Paté Paté is a restaurant located in the Vesterbro district of Copenhagen, Denmark, in an area known for its vibrant food and dining scene. The restaurant is housed in Copenhagen’s oldest paté factory, which adds a unique historical charm to its atmosphere.
+The cuisine at Paté Paté is influenced by Mediterranean and Middle Eastern flavors, and the menu features a mix of dishes designed for sharing. This approach encourages a communal dining experience. The menu often includes a variety of tapas-style dishes, along with larger plates, and the ingredients are typically sourced locally to ensure freshness and quality.
+The restaurant also features an extensive wine list, emphasizing wines from small, boutique wineries. The wine selection complements the diverse flavors of the dishes served at Paté Paté.
+The interior of Paté Paté combines rustic and contemporary elements, creating a cozy yet chic atmosphere. The dining area is warmly decorated with attention to details that reflect the building's industrial past.
+Paté Paté is popular among both locals and tourists and is known for its relaxed yet vibrant ambiance. It makes a great choice for a casual dinner, a special occasion, or even just a glass of wine in the evening.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prolog Coffee Bar is a well-reputed coffee bar and roastery located in the Meatpacking District, Copenhagen. It offers artisanal coffee, ice cream sandwiches, and other cafe fare. The bar is known for its excellent coffee, particularly its rich espressos and tasty milk. It has a welcoming ambiance with outdoor seating and is appreciated for its passionate approach to coffee. It was featured in the Coffeevine box for their classic washed Ethiopian coffee in January 2024. The bar's address is Høkerboderne 16, 1712 København, Denmark, and it is open every day, usually from 7 AM to 6 PM. The bar's online presence is strong with a rating of 4.8 from 34 reviews and 1388 reviews by visitors with 326 detailed photos. Moreover, they host events to share about their roastery offerings.</t>
   </si>
   <si>
     <t xml:space="preserve"> Strøget is one of the longest pedestrian shopping streets in Europe, located in the heart of Copenhagen, Denmark. It stretches from City Hall Square (Rådhuspladsen) to Kongens Nytorv, covering approximately 1.1 kilometers. Strøget is not a single street but a series of interconnected streets and it includes areas like Frederiksberggade, Nygade, Vimmelskaftet, Amagertorv, and Østergade.
@@ -450,10 +1003,38 @@
 Besides shopping and entertainment, the area around Strøget offers various dining options, from casual cafes and fast food to gourmet restaurants. This makes it not only a shopping destination but also a place where visitors can experience Danish cuisine and the bustling street life of Copenhagen.</t>
   </si>
   <si>
-    <t xml:space="preserve"> BUKA BAKERY is located at Store Kongensgade 18, 1264 København, Denmark. It is a relaxed eatery open every day from 7 AM to 6 PM, offering an all-day menu, classic baked goods, espresso, wine, and beer. The bakery has an open kitchen and a copper-topped bar where guests can watch the chefs at work. The food is designed to be shared and focuses on the quality of the ingredients. Contact number is +45 53 78 85 86 and their menu can be found on their website, buka-bakery.com. They specialize in sourdough bread, croissants, among other items. The bakery has received positive reviews on Tripadvisor.</t>
+    <t>Prosto urządzona kawiarnia oferująca całodzienne menu i klasyczne wypieki, a także espresso, wino i piwo.BUKA BAKERY is located at Store Kongensgade 18, 1264 København, Denmark. It is a relaxed eatery open every day from 7 AM to 6 PM, offering an all-day menu, classic baked goods, espresso, wine, and beer. The bakery has an open kitchen and a copper-topped bar where guests can watch the chefs at work. The food is designed to be shared and focuses on the quality of the ingredients. Contact number is +45 53 78 85 86 and their menu can be found on their website, buka-bakery.com. They specialize in sourdough bread, croissants, among other items. The bakery has received positive reviews on Tripadvisor.</t>
+  </si>
+  <si>
+    <t>Lokal o artystycznej atmosferze serwujący wegetariańskie brunche, słodkie wypieki, tosty i naleśniki.Atelier September is a café located in Copenhagen, Denmark, known for its focus on natural, high-quality ingredients and its minimalist, stylish decor. This café has gained a reputation as a popular spot for both locals and tourists seeking a cozy atmosphere and excellent food.
+Geographically, Atelier September sits in the heart of the city, making it an easily accessible destination for anyone exploring central Copenhagen. The café is housed in a charming historic building, adding to its allure.
+Culinary-wise, Atelier September is renowned for its breakfast and brunch offerings. One of the most famous dishes at this café is their avocado toast, which is often highlighted as a must-try by visitors. Their menu also typically features a selection of artisan coffees and teas, fresh pastries, and a range of healthy options like yogurt and granola.
+The space inside Atelier September is brightly lit with natural light and decorated in a simple yet sophisticated style, making it a popular spot for informal meetings or quiet reading, besides being a culinary stop.
+In summary, Atelier September in Copenhagen is celebrated for its delightful menu specializing in simple, fresh ingredients, its welcoming, chic atmosphere, and its central location, making it a staple within the Copenhagen café scene.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lille Bakery is a popular bakery and café located in Copenhagen, Denmark. Known for its cozy atmosphere and high-quality, artisanal baked goods, Lille Bakery focuses on using organic ingredients and traditional baking techniques. The bakery serves a variety of breads, pastries, and cakes, as well as light meals and coffee. It's a favorite among locals and visitors for its delicious offerings and friendly service. Additionally, the bakery often features a minimalist, rustic interior design which enhances the overall experience of enjoying freshly made baked goods in a relaxed setting.</t>
   </si>
   <si>
     <t xml:space="preserve"> The Hans Christian Andersen Experience is a family-friendly exhibition about the famous Danish author Hans Christian Andersen, located in the Scandic Palace Hotel, at Rådhuspladsen 57, 1550 København, Denmark. It is part of Ripley's Believe it or Not and offers visitors an immersive experience into Andersen's world of fairy tales, including stories like The Little Mermaid and Thumbelina. The museum also offers walking tours retracing Andersen's steps in Copenhagen. The venue opens at 10 AM and closes between 6 PM and 7 PM depending on the day, with visitors typically spending up to 45 minutes here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Killer Kebab - Vesterbro is a kebab shop located at Viktoriagade 11, st tv, 1655 København, Denmark. It serves fresh and delicious kebabs using house-marinated free-range lamb and sourdough flatbreads. Some of their specialties include homemade kebabs and crunchy falafels. They also offer fabulous fries with homemade dips and a selection of beers. The shop first opened in September 2020 in Vesterbro, Copenhagen's historic red light district. It has a strong online presence with over 2100 likes on Facebook and 17k followers on Instagram. The shop's hours of operation vary by day, and visitors typically spend between 25 minutes to an hour there. It is usually not too busy, so there is typically no wait. The price range is $11-$18, making it an affordable dining option.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Original Coffee is a coffee shop based in Copenhagen with multiple branches, including one at Illum Rooftop which offers a great view of the city. It serves delicious cappuccino and is highly praised for its friendly staff. The shop is usually open from 7:00 am to 5:00 pm or 6:30 pm depending on the location. The coffee shop offers dine-in and takeout services. Some of the locations include Bredgade 36, 1260 København, Denmark, Østergade 52, 1100 København, Denmark and Nordre Frihavnsgade 2, 2100 København Ø, Denmark. The coffee shop was founded in 1870 and has been delivering joy and quality to Copenhagen and its visitors for six generations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Loppen is a well-known music venue and cultural hub located in the Christiania neighborhood of Copenhagen, Denmark. Christiania itself is famous for its unique status as a self-proclaimed autonomous district, which has developed a distinct community with its own rules and regulations separate from the rest of Copenhagen. This has influenced the character and atmosphere of Loppen, adding to its appeal as a venue that stands out in the cultural landscape of the city.
+Since its establishment in 1973, Loppen has hosted a wide array of musical acts ranging from local bands to international stars, encompassing various genres including rock, punk, hip hop, and electronic music, among others. The venue is known for its intimate atmosphere, which allows for a close connection between the performers and the audience. This intimacy, combined with the eclectic mix of performances, makes Loppen a popular destination for music lovers seeking a more authentic and grassroots experience.
+Loppen is also part of a larger community of artists and activists in Christiania, and it often features events that are aligned with the community’s values, such as benefits and support for different causes. This aspect of Loppen emphasizes its role not just as a music venue, but also as a space for cultural</t>
+  </si>
+  <si>
+    <t>Długie rzędy charakterystycznych żółtych domów z XVII i XVIII wieku, dawniej służących jako kwatery marynarzy.Nyboder, located in Copenhagen, Denmark, is not a museum but a historic row house district. The name Nyboder translates to "new small houses" in Danish.
+This district was originally built as a residential area for the personnel of the Danish Navy and their families. The initiative for this construction was taken by King Christian IV, with the first buildings erected in the early 17th century, around 1631. The original intent was to provide housing to alleviate the accommodations crisis that naval personnel faced at the time.
+The distinctive yellow row houses are notable for their uniform and simple architectural style, which was quite innovative for its era. These homes were continuously expanded over the centuries to accommodate growing needs. Nyboder's design and concept were somewhat revolutionary during its time, providing organized and planned housing for military personnel, a concept that was not common in most parts of the world until much later.
+Today, the area is not only a reminder of Denmark’s historical maritime endeavors but also a picturesque part of Copenhagen that captures the historical essence of the city. While Nyboder is primarily a residential area, it is of great historical interest and is often included in city tours for its cultural and architectural significance.
+As of now, visitors can walk through</t>
   </si>
   <si>
     <t>Tivoli Gardens, known as "Tivoli" in English, is a famous amusement park and pleasure garden in Copenhagen, Denmark. Often simply called "Tivoli," it is one of the oldest operating amusement parks in the world, having opened on August 15, 1843. The park was founded by Georg Carstensen, who reportedly convinced King Christian VIII by saying: "when the people are amusing themselves, they do not think about politics."
@@ -495,6 +1076,13 @@
 The Round Tower has been featured in various cultural works and remains a popular tourist attraction due to its historical significance and architectural uniqueness.</t>
   </si>
   <si>
+    <t>City Hall Square, also known as Rådhuspladsen, is a significant public square in the heart of Copenhagen, Denmark. Located at the coordinates 55.67591419999999, 12.5691285, it is situated at the western end of Strøget, which is one of Europe's longest pedestrian streets.
+The square is dominated by the Copenhagen City Hall, an imposing building constructed in the National Romantic style, completed in 1905. The City Hall features a tall clock tower, which is one of the tallest buildings in Copenhagen and offers visitors a panoramic view of the city.
+Rådhuspladsen serves as a central hub for many cultural and social events in Copenhagen. It is often the focal point for demonstrations, celebrations, and public gatherings. Around the square, one can find various shops, restaurants, and cafes, making it a lively spot throughout the day.
+The square is also a key node for transportation; it is well-connected by bus routes and is close to the Copenhagen Central Station, facilitating easy access for both locals and tourists.
+Prominent statues and monuments adorn the square, including those of renowned Danish figures such as Hans Christian Andersen. The presence of historical and modern elements in and around</t>
+  </si>
+  <si>
     <t>Rosenborg Castle (Danish: Rosenborg Slot) is a renaissance castle located in the center of Copenhagen, Denmark. The castle was originally built as a country summerhouse in 1606 and is an example of Christian IV's many architectural projects. It was built in the Dutch Renaissance style, and its design was typical of that era.
 Rosenborg Castle is known for housing some of Denmark’s greatest cultural treasures, primarily the Danish crown jewels and regalia. It features impressive interiors that have been well-preserved and provide a deep insight into the splendor of royal Danish culture in the early 17th century. The castle contains the throne chair of Denmark, which is made of narwhal tusks (often associated with unicorns) and affirms the mythological status of these creatures in ancient times.
 The castle is also known for its beautiful gardens, known as the King's Garden (Kongens Have), which were laid out during the reign of King Christian IV. These gardens are the oldest royal gardens in Denmark and are a popular retreat in the heart of Copenhagen.
@@ -502,11 +1090,27 @@
 It is not only a national treasure but also a significant cultural symbol, reflecting the historical narrative of Denmark's monarchy and its evolution over the centuries.</t>
   </si>
   <si>
-    <t>The King's Garden, also known as Rosenborg Castle Gardens, is a historic garden located in the heart of Copenhagen, Denmark. This park, which holds the coordinates 55.6852905 latitude and 12.5798452 longitude, is the country’s oldest royal garden and was established in the early 17th century as the private garden of King Christian IV.
-Rosenborg Castle, which is situated within the gardens, was originally built as a country summerhouse in 1606 and is an example of Christian IV's many architectural projects. Over the years, it was expanded and transformed into the castle seen today, completed in 1624. The castle now serves as a museum displaying the Royal Collections, showcasing artifacts like the Crown Jewels and the Danish Crown Regalia.
-The King’s Garden itself spans about 12 hectares and is designed in the Renaissance style, which is reflective of the period during which it was first laid out. It is a popular recreational spot for both locals and tourists, offering a tranquil escape with beautifully maintained lawns, flowerbeds, and historical statues. One standout feature is a statue of Hans Christian Andersen, a nod to Denmark’s rich literary heritage.
-Throughout the year, the King's Garden hosts various events including concerts, art exhibitions, and holiday markets, contributing to its role as a cultural hub in Copenhagen. It is also an important conservation area for a variety of plant species and birds, enhancing its ecological significance within the urban environment. 
-Overall, The King’s Garden serves not only as a historical site connected to Danish royalty but as a beloved public park that provides cultural, recreational, and ecological value to Copenhagen's urban landscape.</t>
+    <t>Christiansborg Palace, located on the islet of Slotsholmen in central Copenhagen, Denmark, serves multiple purposes and is a crucial center of governance in Danish political life. It houses the Danish Parliament (Folketinget), the Supreme Court, and the Ministry of State. Additionally, parts of the palace are utilized by the Danish monarch, including the Royal Reception Rooms, the Palace Chapel, and the Royal Stables.
+The site of Christiansborg Palace has a long history of being the locus of power; it has housed various castles and palaces since the 12th century. The current Christiansborg Palace is actually the third to be built on the site. The first palace was constructed by King Christian VI between 1733 and 1745 and was destroyed by fire in 1794. The second palace was erected between 1803 and 1828 but was also consumed by fire in 1884. The present structure was built in stages from 1907 to 1928, designed by Danish architect Thorvald Jørgensen in a neo-baroque style.
+Christiansborg is noteworthy for its architecture and houses significant artworks and decorations. The Royal Reception Rooms are especially rich in decoration and are used for official functions</t>
+  </si>
+  <si>
+    <t>TorvehallerneKBH, often simply referred to as Torvehallerne, is a modern and popular market hall located in Copenhagen, Denmark. Situated at the coordinates 55.6836899, 12.5697654, near the Nørreport station, it serves as a central hub for both locals and tourists looking to purchase a variety of high-quality fresh food products.
+Opened in September 2011, Torvehallerne spans roughly 7,000 square meters and is divided into two large glass and steel structures (halls) which are separated by an open space that is also utilized for market activities. These halls house over 60 different stalls offering a diverse array of products including fresh seafood, meat, cheeses, baked goods, and gourmet chocolates, as well as a variety of organic and locally-sourced fruits and vegetables.
+In addition to the food stalls, Torvehallerne also features a number of eateries and small restaurants where visitors can enjoy meals prepared from ingredients sourced directly from the market. There is a strong emphasis on quality and freshness, which resonates well with Copenhagen’s culinary reputation.
+The market is not only a place for buying groceries but also serves as a cultural spot where people come to enjoy the vibrant</t>
+  </si>
+  <si>
+    <t>The King's Garden, known as Kongens Have in Danish, is located in Copenhagen, Denmark. This public park surrounds Rosenborg Castle and is situated in the central part of the city. The garden was originally established in the early 17th century, making it the oldest park in Copenhagen. It was commissioned by King Christian IV of Denmark, who also played a significant role in the development of many other architectural and landscaped projects in Denmark during his reign.
+The coordinates (55.6852905, 12.5798452) place it in the heart of the city, making it a popular spot not only among tourists but also local residents. Rosenborg Castle, which is situated within the park, is now a museum and houses some of Denmark’s greatest cultural treasures, including the Crown Jewels and the Danish crown regalia.
+The King's Garden is designed in the Renaissance style and spreads over an area of about 12 hectares. It features manicured gardens, large tree-lined paths, and historical statues, offering a peaceful retreat from the urban bustle. Its layout has evolved over the centuries, but it retains a formal structure with broad gravel paths and symmetrical garden sections.
+Throughout the year, the garden serves as a venue for various</t>
+  </si>
+  <si>
+    <t>The Ny Carlsberg Glyptotek is an art museum located in Copenhagen, Denmark. It was founded by the brewer Carl Jacobsen, the son of the founder of the Carlsberg Breweries, and is named after his brewery, Ny Carlsberg, with "Glyptotek" meaning collection of sculpture. The museum was officially opened to the public in 1897.
+The Ny Carlsberg Glyptotek houses an extensive collection of sculptures and paintings. It is particularly renowned for its assemblage of antiquities from ancient cultures around the Mediterranean, including Egypt, Rome, and Greece, as well as French and Danish art from the 19th century. The museum's collection includes works by master artists such as Rodin, van Gogh, Monet, and Picasso.
+The architecture of the museum is itself noteworthy, featuring a central winter garden with a picturesque glass dome. This space provides a tranquil, light-filled environment for the display of art and for visitors to enjoy.
+The museum also engages in various research, educational programs, and special exhibitions, making it an important cultural institution in Denmark and an attractive destination for visitors interested in art and history.</t>
   </si>
   <si>
     <t>The National Museum of Denmark (Danish: Nationalmuseet) in Copenhagen is Denmark's largest museum of cultural history, comprising the histories of Danish and foreign cultures alike. It is located close to the center of Copenhagen, near the Strøget at Frederiksgade 1.
@@ -515,6 +1119,33 @@
 The main building is a classical 18th-century mansion directly adapted for museum purposes. This includes a variety of permanent exhibitions, such as the Danish Prehistory, which highlights artifacts like the famous Sun Chariot (Solwognen), which is more than 2,000 years old and made from bronze.
 The National Museum also offers special exhibitions and activities aimed at families with children, as well as a museum shop and cafe. Additionally, the museum oversees the management of several cultural and historic sites across Denmark including the Open Air Museum in Copenhagen’s suburban area, Frilandsmuseet. This museum provides an experience of how life was lived in Denmark historically, through original buildings from various periods and regions of the country.
 The museum is also a research and educational institution and runs a public library with broad collections related to cultural, archaeological, and ethnographic subjects.</t>
+  </si>
+  <si>
+    <t>Warpigs Brewpub is a popular establishment located in Copenhagen, specifically in the vibrant Meatpacking District (Kødbyen) of Vesterbro. It is a collaboration between Mikkeller, a renowned Danish microbrewery, and Three Floyds, an acclaimed American brewery based in Indiana. The brewpub is known for its craft beers and American-style barbecue dishes.
+Warpigs offers a unique selection of craft beers, many of which are brewed on-site. The beer offerings include a diverse range of styles, with frequent new releases that often attract craft beer enthusiasts. The pub's setting in a former meat market adds a distinctive industrial charm to its ambiance, enhancing the overall experience of its patrons.
+The food menu at Warpigs primarily features authentic Texas-style barbecue, prepared and smoked in-house. The menu typically includes a variety of meats such as brisket, pulled pork, and ribs, complemented by traditional sides like coleslaw, beans, and cornbread.
+The atmosphere in Warpigs is casual and laid-back, making it a popular spot for both locals and tourists. The brewpub also hosts various events and has become a notable spot in Copenhagen's craft beer scene.
+Given its partnership between two prominent breweries and its combination of craft</t>
+  </si>
+  <si>
+    <t>Reffen - Copenhagen Street Food is a vibrant and sprawling outdoor food market located in Copenhagen, Denmark. It is situated in a former industrial area in the district of Refshaleøen, which has been transformed into a bustling hub for food enthusiasts and cultural activities.
+The market serves as a creative space where new food entrepreneurs can establish and develop their concepts affordably, emphasizing innovation, organic produce, and local ingredients. The concept of Reffen revolves around sustainability and reducing food waste, aligning with Copenhagen's broader goals of eco-friendliness and responsible tourism.
+Visitors at Reffen can explore a wide array of culinary offerings from around the world, including street food from various cuisines, gourmet snacks, and local delicacies. It's not just about food; the market also hosts a variety of events, including live music, workshops, and cultural celebrations, making it a lively spot for both locals and tourists.
+The outdoor nature of the market makes it a seasonal destination, typically bustling during the warmer months from spring through early autumn. The location is also notable for its views of the Copenhagen harbor and its proximity to other tourist attractions in the area.
+Reffen aims to support small and independent food businesses, providing a platform for new chefs and culinary talents</t>
+  </si>
+  <si>
+    <t>Amager Beach Park, located in Copenhagen, Denmark, is a popular recreational area known for its beaches and facilities. It is situated on the island of Amager and is relatively close to the city center, making it easily accessible for both locals and tourists.
+The park features a long sandy beach and a lagoon, with paths for walking, jogging, and biking. It spans approximately 4.6 kilometers and includes various amenities like beach volleyball courts, kitesurfing areas, and kayaking options. The beach is divided into sections, including areas for swimming and sunbathing.
+In addition to the natural and recreational offerings, Amager Beach Park hosts several facilities such as snack bars, ice cream stands, and public restrooms, making it well-suited for extended visits. The park also provides lifeguard services during the summer months to ensure the safety of visitors.
+The park was developed to provide a beach experience for city dwellers and to enhance the recreational options in Copenhagen. It is highly valued by the community for its contribution to the quality of life in the city and its role in promoting outdoor activities.
+Accessible by both public transport and bike, the park is a hub for various outdoor activities and events throughout the year. Its proximity to Copenhagen Airport</t>
+  </si>
+  <si>
+    <t>Frederiksberg Gardens, located in Copenhagen, Denmark, is an English-style romantic landscape garden. The gardens are one of the largest and most attractive green spaces in Copenhagen, covering about 31 hectares (76 acres). This park is part of the Frederiksberg district and is situated adjacent to the Copenhagen Zoo. 
+The gardens were originally part of the baroque garden laid out by King Frederik IV in connection with Frederiksberg Palace, which overlooks the park from a hilltop. Over time, these gardens have evolved from a formal baroque garden to a romantic landscaped garden. Notably, the garden's original baroque layout was transformed during the reign of King Frederik VI in the early 19th century, adopting the then-popular romantic garden style with winding paths, lakes, and islands.
+Frederiksberg Gardens features a number of distinctive elements including picturesque canals, expansive lawns, and ornamental gardens. It also houses classical features such as statuary and an ornamental Chinese Pavilion, which was added in 1799 as a tea house. In the northeastern corner of the gardens is the Apis Temple, another classical feature added during the Romantic renovations.
+A notable attraction within the gardens is the Småland</t>
   </si>
   <si>
     <t>Designmuseum Denmark, also known as Designmuseum Danmark, is located in Copenhagen, Denmark. It is one of the primary museums in Denmark for Danish and international design. The museum’s collection includes decorative art, crafts, and industrial designs from Europe and Asia from the late Middle Ages to the present.
@@ -545,6 +1176,61 @@
 Overall, Nyhavn is not only an essential part of Copenhagen's maritime history but also a lively and enjoyable destination, embodying the city’s vibrant modern-day culture while preserving links to its rich historical past.</t>
   </si>
   <si>
+    <t>Paludan Bog &amp; Café is a popular café and bookstore located in the heart of Copenhagen, Denmark. It is known for its unique combination of bookshop and café, providing a cozy atmosphere where visitors can enjoy a wide selection of books while sipping coffee or eating. The café is often frequented by students, tourists, and locals alike, who appreciate the blend of cultural and culinary experiences.
+The interior of Paludan Bog &amp; Café features shelves lined with books, available for both reading and purchase, which adds to the intellectual and warm ambiance of the space. The menu typically includes a variety of coffee drinks, teas, and light meals such as sandwiches and salads, making it an ideal spot for breakfast, lunch, or a relaxing break during the day.
+Given its central location in Copenhagen, close to universities and cultural landmarks, Paludan Bog &amp; Café serves as a convenient and appealing destination for those looking to enjoy a good book in a welcoming environment. The café also hosts events and readings, contributing further to the cultural life of the city.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"The Dubliner" in Copenhagen is an Irish pub located in the city center, popular among locals and tourists for its authentic Irish pub atmosphere. It is known for offering a variety of beers, including traditional Irish brews, and for hosting live music events, particularly featuring Irish folk music. The pub typically provides a selection of pub food and snacks, and is a favored spot for watching sports events, especially football and rugby, due to the presence of multiple screens.
+Its central location in Copenhagen makes it easily accessible and a convenient gathering spot. The Dubliner is part of a larger chain of Irish pubs which can be found in various cities around Europe, known for maintaining a consistent Irish pub experience.
+The pub is appreciated for its friendly staff and cozy, warm environment, which emulates the feel of a traditional Irish pub, making it a popular choice for both expats looking for a taste of home and locals seeking the unique Irish pub culture.
+</t>
+  </si>
+  <si>
+    <t>Tivoli Food Hall is located at the mentioned coordinates in Copenhagen, Denmark. It is part of the Tivoli Gardens, which is one of the oldest operating amusement parks in the world, having opened in 1843. The food hall itself is a more recent addition, offering a diverse range of food stands and eateries under one roof. 
+This venue provides visitors with a variety of culinary options ranging from local Danish cuisine to dishes from around the globe. The design of the food hall emphasizes an open and inviting atmosphere, catering to both locals and tourists. The location within Tivoli Gardens adds to its appeal, allowing visitors to combine dining with entertainment.
+Given its placement within Tivoli Gardens, access to the food hall usually requires admission to the park, making it a convenient dining option for those already visiting the attractions. It's a popular spot for both meals and snacks, with options suitable for families, couples, or solo visitors.</t>
+  </si>
+  <si>
+    <t>Gasoline Grill is a popular burger restaurant located in Copenhagen, Denmark. Known for its high-quality burgers, the establishment has earned a reputation among both locals and tourists. The restaurant puts a strong emphasis on using fresh, high-quality ingredients to craft their burgers, which has garnered them numerous positive reviews and a loyal following.
+The vibe of Gasoline Grill is often described as cool and minimalistic, with a focus on quick service and delicious food rather than elaborate décor. Despite its simplicity, the place has managed to make a significant impact on the food scene in Copenhagen, often featuring in lists of the best burgers in the city.
+The exact location coordinates of Gasoline Grill are 55.6832682 latitude and 12.585052 longitude, which places it conveniently within the urban area of Copenhagen, accessible for both residents and visitors to the city.
+Please note, while this description provides an overview of Gasoline Grill, specific operational details such as opening hours, menu items, or prices might change and should be checked from official or more current sources.</t>
+  </si>
+  <si>
+    <t>As of my last update, Broens Street Food is a popular street food market located in Copenhagen, Denmark. It is situated in a vibrant area along the Copenhagen harbor front, close to the iconic Inderhavnsbroen, a pedestrian and cycling bridge that connects the city center with the Christianshavn neighborhood.
+Broens Street Food offers a diverse range of food stalls and bars, featuring both local Danish cuisine and international dishes. This makes it a bustling gastronomic hub that attracts both locals and tourists. Visitors can enjoy a variety of foods such as smørrebrød (traditional Danish open sandwiches), seafood, gourmet burgers, vegan options, and more.
+The setting of Broens Street Food is typically informal and lively, with communal seating areas that encourage a communal dining experience. It is also known for its sustainability focus, with an emphasis on local ingredients and environmentally friendly practices.
+The market usually operates seasonally, with peak activity during the warmer months when the waterfront location adds to its appeal, providing beautiful views and a relaxed atmosphere.
+Please check the latest information or their official website for current operating hours, exact location details, and any COVID-19 related restrictions or changes in operation.</t>
+  </si>
+  <si>
+    <t>Ofelia Plads is a public space located in Copenhagen, Denmark. It is situated along the waterfront near the city center and coordinates with latitude 55.6806986 and longitude 12.5950433. This location was formerly an industrial area and has been transformed into a vibrant cultural hub and recreational area. It is named after a nearby historical theater boat, "Ofelia," and has become a popular gathering spot for various cultural events and activities.
+Ofelia Plads is often used for hosting events, concerts, and performances, especially in the summer months when outdoor activities are more frequent. The area features open spaces that are conducive to both large and small events, making it a versatile venue for cultural activities. The proximity to the water also makes it an attractive location, offering scenic views and a relaxing environment.
+The cultural association linked with Ofelia Plads likely plays a role in organizing and promoting events and activities that take place in this area, fostering cultural engagement and community interaction in Copenhagen.
+Given its central location and the variety of activities it supports, Ofelia Plads is a significant site for cultural and social engagement in Copenhagen, reflecting the city's dedication to promoting arts, culture, and community well-being.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kødbyens Fiskebar, located in Copenhagen, Denmark, is a restaurant specializing in seafood. Situated in the trendy Meatpacking District of Vesterbro (Kødbyen), it offers a dynamic dining experience with a focus on sustainable, high-quality seafood. This area is known for its vibrant nightlife and cultural scene, hosting a variety of restaurants, bars, and galleries.
+The atmosphere at Kødbyens Fiskebar combines the industrial charm of the meatpacking district with a modern, sophisticated touch. Its interior often features minimalist decor with an emphasis on raw materials, which complements the urban feel of the district.
+Kødbyens Fiskebar is well-regarded for its commitment to freshness and quality, sourcing its seafood from local and sustainable fisheries. The menu likely includes a range of seafood dishes, from oysters and shellfish to various fish species, prepared with a Nordic twist. The restaurant might also offer an array of wines and cocktails to pair with the seafood.
+In addition to the food, Kødbyens Fiskebar is known for its friendly and knowledgeable service, providing guests with a memorable dining experience. The restaurant is popular among locals and tourists alike, making it a bustling spot, especially during the evenings.
+</t>
+  </si>
+  <si>
+    <t>Høst is a well-known restaurant located in Copenhagen, Denmark, renowned for offering an exceptional dining experience that centers around Nordic cuisine. The restaurant is praised for its innovative approach to traditional dishes, highlighting seasonal and locally-sourced ingredients.
+The ambiance at Høst has been widely recognized for its unique blend of rustic and contemporary design elements, enhancing the overall dining experience with a cozy, yet modern Scandinavian aesthetic. This has contributed to its popularity among both locals and tourists.
+Høst has earned accolades for its culinary excellence, including recognition from prestigious award bodies, which has helped to bolster its reputation as a destination for food enthusiasts.
+The restaurant's focus on providing a seasonal menu means that it changes frequently, ensuring that each dining experience can be distinct. Diners at Høst can expect to enjoy not just a meal, but a carefully curated experience that engages all the senses.
+The exact details of the menu offerings and the specific awards received might vary, but the consistent quality and innovative approach to Nordic cuisine are core aspects of the Høst dining experience.</t>
+  </si>
+  <si>
+    <t>Mikkeller Bar in Copenhagen is a renowned craft beer bar associated with the Danish microbrewery Mikkeller, established by Mikkel Borg Bjergsø. Known for its extensive selection of craft beers, the bar features a mix of Mikkeller’s own brews along with beers from top international and local breweries.
+Located in the vibrant Vesterbro district, a neighborhood known for its trendy bars and cultural attractions, Mikkeller Bar is a popular destination for beer enthusiasts. The bar's interior is typically Scandinavian, with minimalist decor and a cozy, inviting atmosphere that emphasizes the extensive beer selection.
+Mikkeller itself is famous for its innovative approach to brewing, often experimenting with different flavors and brewing techniques, which is reflected in the unique beer offerings at the bar. They frequently host beer tasting events and launches for new brews, making it a dynamic hub for Copenhagen’s craft beer scene.
+The exact coordinates provided (55.6719123, 12.5575373) pinpoint the location of the bar, making it easily accessible for locals and tourists seeking a distinctive and high-quality beer experience in the heart of Copenhagen.</t>
+  </si>
+  <si>
     <t>Folkehuset Absalon is a community house and event space located in the Vesterbro neighborhood of Copenhagen, Denmark. It is not just a restaurant but a versatile community center where people from various backgrounds come together to engage in a range of activities and shared meals.
 Housed in a former church, the space has been repurposed to foster community engagement and provide a relaxed environment for people to meet and interact. The interior retains some elements of its past, with high ceilings and large windows, but is repurposed with colorful furniture and contemporary decor to create a welcoming and informal atmosphere.
 Folkehuset Absalon organizes daily community dinners at an affordable price, where everyone is welcome to join. The meals are simple and served at long communal tables, emphasizing togetherness and conversation over gourmet offerings. Besides dinners, it hosts a variety of activities ranging from yoga and dance to concerts, bingo, and other social gatherings.
@@ -552,6 +1238,21 @@
 The venue is also open for events, and people can participate in various scheduled activities throughout the week. It has become a popular spot not only for locals but also for travelers seeking to experience Copenhagen's community vibe.</t>
   </si>
   <si>
+    <t>Mad &amp; Kaffe is a popular cafe located in Copenhagen, Denmark. It is known for its cozy atmosphere and distinctive approach to breakfast and brunch. The cafe offers a unique menu where customers can build their own breakfast by choosing from a selection of small dishes. The options typically include a variety of bread, cheese, meats, vegan alternatives, and sweet treats among others.
+The interior of Mad &amp; Kaffe is stylish and inviting, often featuring rustic and vintage decor elements which add to its charm and appeal. The cafe has gained significant popularity, not only among locals but also among tourists, making it a bustling spot particularly during weekends.
+In addition to its breakfast and brunch selections, Mad &amp; Kaffe also serves a variety of coffees, teas, and other beverages. It is recognized for the quality of its coffee, which complements its meals well.
+Due to its popularity, there can be long waiting times, especially during peak hours, so visitors are often advised to arrive early or be prepared to wait.
+Mad &amp; Kaffe has multiple locations in Copenhagen, and each may have its own unique vibe, but the quality and style of food and beverages remain consistent, which keeps the brand strong and recognizable across the city. It has been featured in various travel and</t>
+  </si>
+  <si>
+    <t>Kastellet, located in Copenhagen, Denmark, is one of the best-preserved fortresses in Northern Europe. It is situated in the area of Østerbro and is marked by distinctive star-shaped bastions at its corners. This star-shaped fortress was commissioned by Frederik III and was constructed in the mid-17th century.
+The primary purpose of Kastellet was military; it was intended to defend the city of Copenhagen. Over the years, it has maintained its military functions but has also become a popular public park and historical site. The design of the fortress follows the principles of Dutch fortifications with earthen walls and bastions, which were typical of that era.
+Kastellet consists of several noteworthy structures including:
+1. **The Commandant's House**: This is the official residence of the commander and is one of the central buildings in the complex.
+2. **The Church**: Built in the Baroque style, the church is still active today and serves the military community, though it is also open to the public.
+3. **The Windmill**: A striking feature of Kastellet, this windmill dates back to 1847 and replaces an earlier mill that was destroyed. It is one of the</t>
+  </si>
+  <si>
     <t>The Garden of the Royal Library, known as the "Royal Library Garden" (Det Kongelige Biblioteks Have), is situated in Copenhagen, Denmark. This garden is located between a number of significant buildings, including the Royal Library itself, one of the largest libraries in Scandinavia, and Christiansborg Palace, where the Danish Parliament and the office of the Prime Minister are located.
 The garden features neatly manicured lawns, tree-lined paths, and well-maintained flower beds, making it a popular spot for both tourists and locals looking for a quiet escape in the city. Central to the garden is a notable statue of the famous Danish philosopher Søren Kierkegaard, reflecting Denmark's rich intellectual history.
 This serene park is not just a place for relaxation but also serves as a venue for various cultural events and activities throughout the year. Its location next to the Royal Library allows easy access to one of Denmark's key cultural institutions, which holds extensive collections and often hosts exhibitions and other educational events.
@@ -562,6 +1263,41 @@
 The fountain was designed by Danish artist Anders Bundgaard and was constructed in the early 20th century. It was officially inaugurated in 1908. The sculpture depicts the mythological story from Nordic folklore, where the goddess Gefion plows the island of Zealand out of Sweden. According to the myth, the Swedish king Gylfi promised Gefion as much land in Sweden as she could plow in one night. Gefion then transformed her four sons into powerful oxen to plow deep and wide, pulling a piece of land into the sea, which then became Zealand, the largest island of Denmark.
 The fountain itself is quite dramatic, with the powerful figures of the oxen and Gefion, accompanied by jets of water that add to the dynamic effect of the scene. It serves not only as a piece of historical art but also as a symbol of the foundational myth of Zealand.
 Gefion Fountain is often visited by tourists and is well known for its aesthetic and historical significance. It’s particularly popular among photographers due to its dramatic depiction and the play of water and light. The fountain is located in an area that is also famous for other attractions like the nearby Little Mermaid statue, making it part of a popular walking route along the Copenhagen waterfront.</t>
+  </si>
+  <si>
+    <t>Bæst is a popular restaurant located in Copenhagen, Denmark, known for its commitment to organic ingredients and a farm-to-table dining experience. This restaurant is particularly celebrated for its house-made charcuterie, cheeses, and wood-fired pizzas. Bæst makes its own mozzarella and other cheeses at their urban dairy, which can also be observed through a viewing window inside the restaurant.
+The restaurant is part of a larger culinary project by Chef Christian Puglisi, who is also known for Relæ, a Michelin-starred restaurant that emphasizes organic and sustainable cuisine. Bæst follows this philosophy as well, sourcing most of its produce from its own farm, Farm of Ideas, located just outside Copenhagen.
+The menu at Bæst blends Italian culinary traditions with the Nordic emphasis on local and seasonal produce, providing a unique dining experience. The interior is cozy yet buzzing, often packed with locals and tourists alike, attracted by the restaurant's reputation for authentic, high-quality food.
+The commitment to sustainability at Bæst extends beyond food sourcing. The restaurant also emphasizes minimizing waste and maximizing recycling efforts, aligning with broader environmental goals within the industry.
+Bæst is not only a dining spot but a testament to the potential of integrating local farming</t>
+  </si>
+  <si>
+    <t>Juno the Bakery is a popular artisan bakery located in Copenhagen, Denmark. It has gained a reputation for its high-quality baked goods and has become a well-loved spot for both locals and tourists. Juno the Bakery is particularly famous for its cardamom buns, which have been praised for their perfect blend of sweetness and spice, making them a must-try for visitors.
+The bakery often has a range of products available, including various types of bread, pastries, and cakes, all made using traditional baking techniques and high-quality ingredients. The cozy and welcoming atmosphere of the bakery adds to its charm, making it a pleasant place to visit for a morning or afternoon treat.
+The exact location of Juno the Bakery in Copenhagen can be found via the coordinates (55.7061815, 12.5818152), which place it in a central part of the city, accessible and easy to locate for those exploring the area.
+Keep in mind, like any popular establishment, there might be queues, especially on weekends or during peak hours, so planning a visit earlier in the day could be beneficial to avoid the rush.</t>
+  </si>
+  <si>
+    <t>Hija de Sanchez is a well-regarded Mexican eatery located in Kødbyen, the Meatpacking District of Copenhagen, Denmark. Founded by Rosio Sanchez, a former pastry chef at Noma (one of the world's leading restaurants), Hija de Sanchez offers authentic Mexican cuisine with a focus on high-quality, fresh ingredients. 
+Rosio Sanchez, being of Mexican descent, brings authentic flavors and culinary techniques to Copenhagen, specializing in tacos and other Mexican dishes. The restaurant sources its corn for tortillas directly from Mexico, ensuring an authentic taste and texture. The menu typically features a variety of tacos, including options such as carnitas, barbacoa, and al pastor, as well as other Mexican staples like quesadillas and freshly made salsas.
+The setting in the trendy Kødbyen area, known for its vibrant nightlife and culinary scene, provides a contemporary and casual atmosphere that is popular with both locals and tourists. The eatery has gained accolades for its quality food and contribution to Copenhagen's diverse food scene. 
+Hija de Sanchez is considered a must-visit for those seeking authentic Mexican cuisine in Copenhagen.</t>
+  </si>
+  <si>
+    <t>Skt. Peders Bageri is a well-known bakery located in Copenhagen, Denmark. It is particularly famous for its traditional Danish breads and pastries. One of the signature items of Skt. Peders Bageri is its "onsdagsnegl," a special cinnamon roll made and sold only on Wednesdays, which has garnered a lot of popularity among both locals and tourists.
+The bakery is situated in the central part of Copenhagen, making it easily accessible for anyone visiting or residing in the city. Skt. Peders Bageri maintains a cozy and inviting atmosphere, which reflects the traditional Danish bakery vibe, combined with a sense of community.
+Historically, the bakery has been serving customers for many years, establishing itself as a staple in the local culinary scene. It also receives high praise for the quality and authenticity of its baked goods, contributing significantly to its reputation as one of the must-visit bakeries in Copenhagen.
+If you were to visit Skt. Peders Bageri, you could expect a range of baked products including various types of bread, pastries, cakes, and cookies, all made using traditional Danish recipes and techniques.</t>
+  </si>
+  <si>
+    <t>Coffee Collective Torvehallerne is a well-known coffee shop located in the Torvehallerne market in Copenhagen, Denmark. This location is one of several operated by The Coffee Collective, a pioneering specialty coffee company in Denmark known for its dedication to quality and sustainability.
+Torvehallerne is a vibrant and bustling market in Copenhagen that features a range of vendors selling everything from fresh produce to gourmet foods. Coffee Collective's outpost here serves as a popular destination for both locals and tourists looking to enjoy high-quality coffee.
+The Coffee Collective is renowned for its direct trade with coffee farmers, ensuring fair compensation to the farmers and high-quality beans for their coffee. They are involved in every step of the coffee-making process, from sourcing the beans to the final brew, focusing on sustainability and ethical practices.
+At their Torvehallerne location, visitors can expect expertly brewed coffee made from beans roasted by Coffee Collective themselves. The offerings typically include espresso-based drinks, filter coffee, and other specialty coffee options. The staff is usually well-informed and passionate about coffee, often willing to discuss their brews, the origins of the beans, and the nuances of coffee tasting.
+The atmosphere at Coffee Collective Torvehallerne is typically modern and minimalistic, consistent with the</t>
+  </si>
+  <si>
+    <t>Hart Bageri is a local Danish bakery situated at Gl. Kongevej 109, 1850 Frederiksberg C, Denmark. Opened in 2018, it was founded by Richard Hart, the former head baker of San Francisco's Tartine, in partnership with Noma. The bakery offers a variety of items including sourdough bread, rye bread, sandwiches, cakes, cookies, and pastries. They also serve coffee from Square Mile and Prolog and tea from The Rare Tea Company. The bakery is renowned for its fresh, handcrafted batches of bakery items and has gained acclaim from both local and international media. It has a 4.5 out of 5 rating on Tripadvisor and is ranked #7 out of 199 restaurants in Frederiksberg. It is open every day from 07:30-18:00.</t>
   </si>
   <si>
     <t>Det Kgl. Bibliotek, commonly referred to in English as The Royal Library, is situated in Copenhagen, Denmark. This prestigious institution is notable for being Denmark’s national library, as well as the library of the University of Copenhagen. It is recognized as one of the largest libraries in the world and the largest in the Nordic countries.
@@ -578,15 +1314,14 @@
 Overall, The Royal Library is a cornerstone institution in Danish society for the preservation, celebration, and promotion of knowledge and culture.</t>
   </si>
   <si>
-    <t>Copenhagen City Hall (Rådhus) is a central administrative building of the city of Copenhagen, the capital of Denmark. It is situated on City Hall Square (Rådhuspladsen) in central Copenhagen. The hall is an example of the National Romantic style in Denmark and has elements inspired by Italian Renaissance architecture.
-Here are some key details about the Copenhagen City Hall:
-1. **Architecture**: The building was designed by architect Martin Nyrop and was inspired by the city hall in Siena, Italy. It was constructed between 1892 and 1905. The design includes a richly ornamented facade and a tower that is 105.6 meters tall, making it one of the tallest buildings in Copenhagen.
-2. **Interior**: The interior of the city hall is also notable, featuring a grand main hall, intricate woodwork, and decorative elements reflecting the art and culture of Denmark. The building houses various artworks, including sculptures and paintings.
-3. **City Hall Tower**: The tower offers a panoramic view of Copenhagen. It is accessible to the public via guided tours, allowing visitors to see the city from a unique vantage point.
-4. **Clock**: An astronomical clock designed by Jens Olsen is located inside the city hall. This clock is not only a masterpiece of craftsmanship but also an intricate scientific instrument.
-5. **Public Access and Events**: The city hall is not only an administrative building but also a cultural landmark. It is open to the public, and guided tours are available. The square in front of the city hall, Rådhuspladsen, is a popular gathering spot and hosts various events, demonstrations, and celebrations.
-6. **Historical and Cultural Significance**: The city hall is not only significant for its architectural and artistic features but also as a center of civic life in Copenhagen. It has been the locus of numerous historical events and continues to be integral to the city's public and cultural events.
-Copenhagen City Hall is a striking feature of the city's landscape and a focal point for its civic and cultural life.</t>
+    <t>Paté Paté is a restaurant located in the Vesterbro district of Copenhagen, Denmark, in an area known for its vibrant food and dining scene. The restaurant is housed in Copenhagen’s oldest paté factory, which adds a unique historical charm to its atmosphere.
+The cuisine at Paté Paté is influenced by Mediterranean and Middle Eastern flavors, and the menu features a mix of dishes designed for sharing. This approach encourages a communal dining experience. The menu often includes a variety of tapas-style dishes, along with larger plates, and the ingredients are typically sourced locally to ensure freshness and quality.
+The restaurant also features an extensive wine list, emphasizing wines from small, boutique wineries. The wine selection complements the diverse flavors of the dishes served at Paté Paté.
+The interior of Paté Paté combines rustic and contemporary elements, creating a cozy yet chic atmosphere. The dining area is warmly decorated with attention to details that reflect the building's industrial past.
+Paté Paté is popular among both locals and tourists and is known for its relaxed yet vibrant ambiance. It makes a great choice for a casual dinner, a special occasion, or even just a glass of wine in the evening.</t>
+  </si>
+  <si>
+    <t>Prolog Coffee Bar is a well-reputed coffee bar and roastery located in the Meatpacking District, Copenhagen. It offers artisanal coffee, ice cream sandwiches, and other cafe fare. The bar is known for its excellent coffee, particularly its rich espressos and tasty milk. It has a welcoming ambiance with outdoor seating and is appreciated for its passionate approach to coffee. It was featured in the Coffeevine box for their classic washed Ethiopian coffee in January 2024. The bar's address is Høkerboderne 16, 1712 København, Denmark, and it is open every day, usually from 7 AM to 6 PM. The bar's online presence is strong with a rating of 4.8 from 34 reviews and 1388 reviews by visitors with 326 detailed photos. Moreover, they host events to share about their roastery offerings.</t>
   </si>
   <si>
     <t>Strøget is one of the longest pedestrian shopping streets in Europe, located in the heart of Copenhagen, Denmark. It stretches from City Hall Square (Rådhuspladsen) to Kongens Nytorv, covering approximately 1.1 kilometers. Strøget is not a single street but a series of interconnected streets and it includes areas like Frederiksberggade, Nygade, Vimmelskaftet, Amagertorv, and Østergade.
@@ -599,67 +1334,191 @@
     <t>BUKA BAKERY is located at Store Kongensgade 18, 1264 København, Denmark. It is a relaxed eatery open every day from 7 AM to 6 PM, offering an all-day menu, classic baked goods, espresso, wine, and beer. The bakery has an open kitchen and a copper-topped bar where guests can watch the chefs at work. The food is designed to be shared and focuses on the quality of the ingredients. Contact number is +45 53 78 85 86 and their menu can be found on their website, buka-bakery.com. They specialize in sourdough bread, croissants, among other items. The bakery has received positive reviews on Tripadvisor.</t>
   </si>
   <si>
+    <t>Atelier September is a café located in Copenhagen, Denmark, known for its focus on natural, high-quality ingredients and its minimalist, stylish decor. This café has gained a reputation as a popular spot for both locals and tourists seeking a cozy atmosphere and excellent food.
+Geographically, Atelier September sits in the heart of the city, making it an easily accessible destination for anyone exploring central Copenhagen. The café is housed in a charming historic building, adding to its allure.
+Culinary-wise, Atelier September is renowned for its breakfast and brunch offerings. One of the most famous dishes at this café is their avocado toast, which is often highlighted as a must-try by visitors. Their menu also typically features a selection of artisan coffees and teas, fresh pastries, and a range of healthy options like yogurt and granola.
+The space inside Atelier September is brightly lit with natural light and decorated in a simple yet sophisticated style, making it a popular spot for informal meetings or quiet reading, besides being a culinary stop.
+In summary, Atelier September in Copenhagen is celebrated for its delightful menu specializing in simple, fresh ingredients, its welcoming, chic atmosphere, and its central location, making it a staple within the Copenhagen café scene.</t>
+  </si>
+  <si>
+    <t>Lille Bakery is a popular bakery and café located in Copenhagen, Denmark. Known for its cozy atmosphere and high-quality, artisanal baked goods, Lille Bakery focuses on using organic ingredients and traditional baking techniques. The bakery serves a variety of breads, pastries, and cakes, as well as light meals and coffee. It's a favorite among locals and visitors for its delicious offerings and friendly service. Additionally, the bakery often features a minimalist, rustic interior design which enhances the overall experience of enjoying freshly made baked goods in a relaxed setting.</t>
+  </si>
+  <si>
     <t>The Hans Christian Andersen Experience is a family-friendly exhibition about the famous Danish author Hans Christian Andersen, located in the Scandic Palace Hotel, at Rådhuspladsen 57, 1550 København, Denmark. It is part of Ripley's Believe it or Not and offers visitors an immersive experience into Andersen's world of fairy tales, including stories like The Little Mermaid and Thumbelina. The museum also offers walking tours retracing Andersen's steps in Copenhagen. The venue opens at 10 AM and closes between 6 PM and 7 PM depending on the day, with visitors typically spending up to 45 minutes here.</t>
   </si>
   <si>
-    <t>Folkehuset Absalon, umiejscowione w kopenhaskiej dzielnicy Vesterbro, to miejsce, które swoim wyglądem przypomina kościół, ale w rzeczywistości pełni rolę tętniącego życiem centrum wspólnotowego. Zachęca mieszkańców i podróżników do wspólnego spędzania czasu przy długich stołach, gdzie serwowane są proste posiłki. W Absalonie przez cały tydzień odbywają się różnorodne zajęcia, od jogi po koncerty, co czyni go idealnym miejscem dla tych, którzy chcą doświadczyć duńskiego ducha "hygge".</t>
-  </si>
-  <si>
-    <t>Ratusz w Kopenhadze, zbudowany na przełomie XIX i XX wieku, to oszałamiający przykład architektury Narodowego Romantyzmu z elementami renesansu włoskiego. Jego bogato zdobiona fasada oraz 105,6 metrowa wieża sprawiają, że jest jednym z najwyższych budynków w mieście. Wewnątrz budynku znajduje się zegar astronomiczny Jensa Olsena, będący zarówno dziełem rzemieślniczym, jak i naukowym. Ratusz, będąc centrum życia publicznego i kulturalnego, oferuje także przewodników po wnętrzach i panoramyczne widoki z wieży.</t>
+    <t>Killer Kebab - Vesterbro is a kebab shop located at Viktoriagade 11, st tv, 1655 København, Denmark. It serves fresh and delicious kebabs using house-marinated free-range lamb and sourdough flatbreads. Some of their specialties include homemade kebabs and crunchy falafels. They also offer fabulous fries with homemade dips and a selection of beers. The shop first opened in September 2020 in Vesterbro, Copenhagen's historic red light district. It has a strong online presence with over 2100 likes on Facebook and 17k followers on Instagram. The shop's hours of operation vary by day, and visitors typically spend between 25 minutes to an hour there. It is usually not too busy, so there is typically no wait. The price range is $11-$18, making it an affordable dining option.</t>
+  </si>
+  <si>
+    <t>Original Coffee is a coffee shop based in Copenhagen with multiple branches, including one at Illum Rooftop which offers a great view of the city. It serves delicious cappuccino and is highly praised for its friendly staff. The shop is usually open from 7:00 am to 5:00 pm or 6:30 pm depending on the location. The coffee shop offers dine-in and takeout services. Some of the locations include Bredgade 36, 1260 København, Denmark, Østergade 52, 1100 København, Denmark and Nordre Frihavnsgade 2, 2100 København Ø, Denmark. The coffee shop was founded in 1870 and has been delivering joy and quality to Copenhagen and its visitors for six generations.</t>
+  </si>
+  <si>
+    <t>Loppen is a well-known music venue and cultural hub located in the Christiania neighborhood of Copenhagen, Denmark. Christiania itself is famous for its unique status as a self-proclaimed autonomous district, which has developed a distinct community with its own rules and regulations separate from the rest of Copenhagen. This has influenced the character and atmosphere of Loppen, adding to its appeal as a venue that stands out in the cultural landscape of the city.
+Since its establishment in 1973, Loppen has hosted a wide array of musical acts ranging from local bands to international stars, encompassing various genres including rock, punk, hip hop, and electronic music, among others. The venue is known for its intimate atmosphere, which allows for a close connection between the performers and the audience. This intimacy, combined with the eclectic mix of performances, makes Loppen a popular destination for music lovers seeking a more authentic and grassroots experience.
+Loppen is also part of a larger community of artists and activists in Christiania, and it often features events that are aligned with the community’s values, such as benefits and support for different causes. This aspect of Loppen emphasizes its role not just as a music venue, but also as a space for cultural</t>
+  </si>
+  <si>
+    <t>Nyboder, located in Copenhagen, Denmark, is not a museum but a historic row house district. The name Nyboder translates to "new small houses" in Danish.
+This district was originally built as a residential area for the personnel of the Danish Navy and their families. The initiative for this construction was taken by King Christian IV, with the first buildings erected in the early 17th century, around 1631. The original intent was to provide housing to alleviate the accommodations crisis that naval personnel faced at the time.
+The distinctive yellow row houses are notable for their uniform and simple architectural style, which was quite innovative for its era. These homes were continuously expanded over the centuries to accommodate growing needs. Nyboder's design and concept were somewhat revolutionary during its time, providing organized and planned housing for military personnel, a concept that was not common in most parts of the world until much later.
+Today, the area is not only a reminder of Denmark’s historical maritime endeavors but also a picturesque part of Copenhagen that captures the historical essence of the city. While Nyboder is primarily a residential area, it is of great historical interest and is often included in city tours for its cultural and architectural significance.
+As of now, visitors can walk through</t>
+  </si>
+  <si>
+    <t>Ogrody Tivoli, umiejscowione w sercu miasta, to historyczny park rozrywki, który zachwyca od 1843 roku. Park łączy w sobie atrakcje, takie jak zabytkowa drewniana kolejka górska, z bogatym programem kulturalnym, w tym musicali i koncertów. Charakterystyczne są także sezonowe festiwale i magiczne oświetlenie w nocy, które były inspiracją dla wielu artystów.</t>
+  </si>
+  <si>
+    <t>Mała Syrenka to odzwierciedlenie tęsknoty i dylematów postaci z baśni H.C. Andersena, umieszczone na Langelinie. Ta niewielka, lecz wyraźna rzeźba z brązu przedstawia syrenę spoglądającą w stronę lądu, co odzwierciedla jej marzenia o ludzkim życiu. Pomimo niewielkich rozmiarów, posąg jest kluczowym symbolem Kopenhagi i przyciąga tłumy turystów, będąc świadkiem zarówno aktów wandalizmu, jak i miłości do duńskiej tradycji.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amalienborg to eleganckie skupisko czterech pałaców z XVIII wieku, otoczonych ośmiokątnym dziedzińcem. Kompleks służy nie tylko jako główna rezydencja duńskiej rodziny królewskiej, ale także oferuje wgląd w bogate dziedzictwo kulturowe Danii poprzez muzeum i codzienne ceremonie zmiany warty. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copenhagen Zoo, malowniczo położony w dzielnicy Frederiksberg, jest jednym z najstarszych ogrodów zoologicznych w Europie. Oferuje zróżnicowane siedliska przygotowane z myślą o naturalnym środowisku zwierząt, w tym nowoczesny Dom Słoni zaprojektowany przez Normana Fostera oraz Arktyczny Pierścień, gdzie można obserwować pływające niedźwiedzie polarne. </t>
+  </si>
+  <si>
+    <t>City Hall Square, zlokalizowany w sercu Kopenhagi, stanowi kluczowe miejsce dla lokalnych mieszkańców i turystów poszukujących zarówno kultury, jak i rozrywki. Dominujący krajobraz placu tworzy Ratusz Miejski z 1905 roku, wznoszący się nad okolicą ze swoją charakterystyczną wieżą zegarową. Plac tętni życiem dzięki różnorodności sklepów, restauracji oraz kawiarni i jest znaczącym węzłem komunikacyjnym oraz miejscem ważnych wydarzeń i zgromadzeń publicznych.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muzeum Narodowe Danii, ulokowane w klasycystycznym Pałacu Księcia, przybliża bogatą historię Danii i kultur światowych, od epoki kamienia po nowożytność. Eksponaty obejmują archeologię starożytnego Egiptu, Rzymu, Grecji oraz lokalną prehistorię Danii z artefaktami takimi jak ponad 2000-letni wóz Słoneczny. </t>
+  </si>
+  <si>
+    <t>Warpigs Brewpub to wyjątkowe miejsce w Kopenhadze, gdzie dwa znane browary łączą siły, tworząc przestrzeń pełną kreatywności. Znajdujący się w historycznej dzielnicy Meatpacking, lokal oferuje bogaty wybór piw rzemieślniczych warzonych na miejscu oraz autentyczne dania z amerykańskiego grilla. Atmosfera tego miejsca, zainspirowana dawnym targiem mięsnym, tworzy przestrzeń zarówno dla lokalnych miłośników piwa, jak i turystów szukających niebanalnych kulinarnych doświadczeń.</t>
+  </si>
+  <si>
+    <t>Designmuseum Denmark prezentuje dziedzictwo duńskiego i międzynarodowego wzornictwa, oferując kolekcję, która sięga późnego średniowiecza. Muzeum, umieszczone w zabytkowym budynku rokokowym – dawnym szpitalu, przyciąga zarówno profesjonalistów projektowych, jak i szeroką publiczność. Prace od znanych duńskich projektantów, takich jak Arne Jacobsen, wzbogacają stałe oraz czasowe wystawy, ukazujące ewolucję designu na przestrzeni wieków.</t>
+  </si>
+  <si>
+    <t>Sklep LEGO, umiejscowiony w sercu miasta niedaleko rejonu handlowego Strøget, oferuje zarówno dzieciom, jak i dorosłym możliwość rozbudzania kreatywności przez bogaty wybór zestawów LEGO, w tym ekskluzywnych modeli dostępnych tylko tutaj. To miejsce jest punktem obowiązkowym dla miłośników klocków oraz zabawy twórczej.</t>
+  </si>
+  <si>
+    <t>Ogród Botaniczny, serce miejskiej zielonej oazy, rozciąga się na 10 hektarów i jest częścią Narodowego Muzeum Historii Naturalnej. Jest znany z kolekcji ponad 13,000 gatunków roślin z różnych klimatów. Szczególnie urokliwe są historyczne szklarnie, w tym imponujący Palm House z 1874 roku, które oferują nie tylko widoki na tropikalne rośliny, ale także zapierające dech w piersiach perspektywy z górnego przejścia.</t>
+  </si>
+  <si>
+    <t>Nyhavn to kolorowa i historyczna dzielnica nadbrzeżna, zachwycająca od XVII wieku swoją malowniczością. Znana z barwnych kamienic i tętniącego życiem nabrzeża pełnego kawiarni i restauracji, Nyhavn stanowiła niegdyś ruchliwy port handlowy, a dziś przyciąga jako kulturalne centrum oferujące podróże kanałowymi łodziami z widokiem na zabytkową i nowoczesną architekturę miasta. Dzielnica ta, związana z życiem słynnego duńskiego autora Hansa Christiana Andersena, zachowuje swój historyczny urok równocześnie będąc świadkiem dynamicznej transformacji miasta.</t>
+  </si>
+  <si>
+    <t>Fontanna Gefion to miejsce, gdzie sztuka spotyka się z mitologią. Wyobraża nordycką boginię Gefion, która z pomocą przemienionych w woły synów orze ziemię, tworząc wyspę Zealand. Zainaugurowana w 1908 roku, brązowa rzeźba stanowi zarówno dzieło artystyczne, jak i symbol założycielski duńskiej wyspy, przyciągając miłośników fotografii i historia sztuki.</t>
+  </si>
+  <si>
+    <t>Det Kgl. Bibliotek, zwana również Biblioteką Królewską, jest największą biblioteką w krajach nordyckich. Charakterystyczna dla niej jest różnorodność architektoniczna, gdzie współczesny budynek "Czarny Diament" kontrastuje z tradycyjnymi częściami. Biblioteka gromadzi bogate zbiory od średniowiecznych rękopisów po nowoczesne cyfrowe media, będąc kluczowym ośrodkiem naukowym i kulturowym Danii.</t>
+  </si>
+  <si>
+    <t>Strøget to nie tylko jedna z najdłuższych ulic handlowych dla pieszych w Europie, ale także serce tętniące życiem kultury i towarzyskości. Łącząc historyczne miejsca z nowoczesnymi sklepami oraz restauracjami, ten zabytkowy ciąg ulic tworzy unikalny krajobraz, pełen muzycznych występów na żywo i lokalnych dzieł sztuki. Idealne miejsce zarówno dla miłośników zakupów, jak i tych, którzy pragną zanurzyć się w miejską atmosferę Kopenhagi.</t>
+  </si>
+  <si>
+    <t>BUKA BAKERY to miejsce, gdzie każdego dnia od rana do wieczora można delektować się szeroką gamą wypieków i daniami do dzielenia się przy wspólnym stole. Ich charakterystyczna otwarta kuchnia i bar z blatem z miedzi zapewniają nie tylko smak, ale i wizualne doznania dla gości. Specjalnością piekarni są chleby na zakwasie i kruasany, cieszące się uznaniem odwiedzających.</t>
   </si>
   <si>
     <t>Znajdujące się w sercu Kopenhagi, Hans Christian Andersen Experience to miejsce, w którym dzieci i dorośli mogą zanurzyć się w magicznym świecie baśni duńskiego autora. Ekspozycja, umiejscowiona w Scandic Palace Hotel, pozwala nie tylko poznać klasyczne historie, jak "Mała Syrenka" czy "Calineczka", ale także podążyć śladami Andersena podczas specjalnie organizowanych spacerów po mieście. Otwarte codziennie, to miejsce to idealna propozycja na 45-minutową podróż do krainy fantazji.</t>
   </si>
   <si>
-    <t>Ogrody Tivoli, umiejscowione w sercu miasta, to historyczny park rozrywki, który zachwyca od 1843 roku. Park łączy w sobie atrakcje, takie jak zabytkowa drewniana kolejka górska, z bogatym programem kulturalnym, w tym musicali i koncertów. Charakterystyczne są także sezonowe festiwale i magiczne oświetlenie w nocy, które były inspiracją dla wielu artystów.</t>
-  </si>
-  <si>
-    <t>Mała Syrenka to odzwierciedlenie tęsknoty i dylematów postaci z baśni H.C. Andersena, umieszczone na Langelinie. Ta niewielka, lecz wyraźna rzeźba z brązu przedstawia syrenę spoglądającą w stronę lądu, co odzwierciedla jej marzenia o ludzkim życiu. Pomimo niewielkich rozmiarów, posąg jest kluczowym symbolem Kopenhagi i przyciąga tłumy turystów, będąc świadkiem zarówno aktów wandalizmu, jak i miłości do duńskiej tradycji.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amalienborg to eleganckie skupisko czterech pałaców z XVIII wieku, otoczonych ośmiokątnym dziedzińcem. Kompleks służy nie tylko jako główna rezydencja duńskiej rodziny królewskiej, ale także oferuje wgląd w bogate dziedzictwo kulturowe Danii poprzez muzeum i codzienne ceremonie zmiany warty. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copenhagen Zoo, malowniczo położony w dzielnicy Frederiksberg, jest jednym z najstarszych ogrodów zoologicznych w Europie. Oferuje zróżnicowane siedliska przygotowane z myślą o naturalnym środowisku zwierząt, w tym nowoczesny Dom Słoni zaprojektowany przez Normana Fostera oraz Arktyczny Pierścień, gdzie można obserwować pływające niedźwiedzie polarne. </t>
-  </si>
-  <si>
-    <t>The Round Tower to wyjątkowa wieża z XVII wieku, pierwotnie zbudowana jako obserwatorium astronomiczne. Znana z niezwykłej, spiralnej rampy, umożliwiającej wjazd konno na szczyt, wieża połączona jest z kościołem Trinitatis, tworząc zespół o dużej wartości historycznej. Obecnie przestrzeń ta służy zarówno jako miejsce wystawowe, jak i punkt obserwacyjny, gdzie można podziwiać gwiaździste niebo oraz panoramę miasta przez instalację szklanej podłogi.</t>
-  </si>
-  <si>
-    <t>Zamek Rosenborg, pierwotnie letnią rezydencją z 1606 roku, odtąd przechowuje najcenniejsze skarby kultury duńskiej, w tym klejnoty koronacyjne. Wewnątrz można podziwiać zachowane wnętrza z wczesnych lat XVII wieku, w tym tron z kłów narwala. Otaczające go najstarsze królewskie ogrody w Danii, Kongens Have, zapewniają malownicze tło dla tego muzeum publicznego.</t>
-  </si>
-  <si>
-    <t>The King's Garden, otoczony rozległym terenem zielonym o powierzchni 12 hektarów, głęboko zakorzenia się w historii miasta jako najstarszy królewski ogród kraju, datowany na początki XVII wieku. W jego skład wchodzi zamek Rosenborg, pełniący obecnie rolę muzeum, gdzie przechowywane są m.in. klejnoty koronne. Ogród jest znany z eleganckiego stylu renesansowego, rzeźby Hansa Christiana Andersena i bogatej oferty kulturalnej, m.in. koncertów i wystaw artystycznych.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muzeum Narodowe Danii, ulokowane w klasycystycznym Pałacu Księcia, przybliża bogatą historię Danii i kultur światowych, od epoki kamienia po nowożytność. Eksponaty obejmują archeologię starożytnego Egiptu, Rzymu, Grecji oraz lokalną prehistorię Danii z artefaktami takimi jak ponad 2000-letni wóz Słoneczny. </t>
-  </si>
-  <si>
-    <t>Designmuseum Denmark prezentuje dziedzictwo duńskiego i międzynarodowego wzornictwa, oferując kolekcję, która sięga późnego średniowiecza. Muzeum, umieszczone w zabytkowym budynku rokokowym – dawnym szpitalu, przyciąga zarówno profesjonalistów projektowych, jak i szeroką publiczność. Prace od znanych duńskich projektantów, takich jak Arne Jacobsen, wzbogacają stałe oraz czasowe wystawy, ukazujące ewolucję designu na przestrzeni wieków.</t>
-  </si>
-  <si>
-    <t>Sklep LEGO, umiejscowiony w sercu miasta niedaleko rejonu handlowego Strøget, oferuje zarówno dzieciom, jak i dorosłym możliwość rozbudzania kreatywności przez bogaty wybór zestawów LEGO, w tym ekskluzywnych modeli dostępnych tylko tutaj. To miejsce jest punktem obowiązkowym dla miłośników klocków oraz zabawy twórczej.</t>
-  </si>
-  <si>
-    <t>Ogród Botaniczny, serce miejskiej zielonej oazy, rozciąga się na 10 hektarów i jest częścią Narodowego Muzeum Historii Naturalnej. Jest znany z kolekcji ponad 13,000 gatunków roślin z różnych klimatów. Szczególnie urokliwe są historyczne szklarnie, w tym imponujący Palm House z 1874 roku, które oferują nie tylko widoki na tropikalne rośliny, ale także zapierające dech w piersiach perspektywy z górnego przejścia.</t>
-  </si>
-  <si>
-    <t>Nyhavn to kolorowa i historyczna dzielnica nadbrzeżna, zachwycająca od XVII wieku swoją malowniczością. Znana z barwnych kamienic i tętniącego życiem nabrzeża pełnego kawiarni i restauracji, Nyhavn stanowiła niegdyś ruchliwy port handlowy, a dziś przyciąga jako kulturalne centrum oferujące podróże kanałowymi łodziami z widokiem na zabytkową i nowoczesną architekturę miasta. Dzielnica ta, związana z życiem słynnego duńskiego autora Hansa Christiana Andersena, zachowuje swój historyczny urok równocześnie będąc świadkiem dynamicznej transformacji miasta.</t>
-  </si>
-  <si>
-    <t>Ogród Biblioteki Królewskiej to miejsce, gdzie historia łączy się z naturą. Położony między wielkimi budynkami, takimi jak Biblioteka Królewska i Pałac Christiansborg, jest oazą spokoju dla mieszkańców i turystów. Centralnym punktem ogrodu jest posąg Sørena Kierkegaarda, podkreślający intelektualne dziedzictwo Danii.</t>
-  </si>
-  <si>
-    <t>Fontanna Gefion to miejsce, gdzie sztuka spotyka się z mitologią. Wyobraża nordycką boginię Gefion, która z pomocą przemienionych w woły synów orze ziemię, tworząc wyspę Zealand. Zainaugurowana w 1908 roku, brązowa rzeźba stanowi zarówno dzieło artystyczne, jak i symbol założycielski duńskiej wyspy, przyciągając miłośników fotografii i historia sztuki.</t>
-  </si>
-  <si>
-    <t>Det Kgl. Bibliotek, zwana również Biblioteką Królewską, jest największą biblioteką w krajach nordyckich. Charakterystyczna dla niej jest różnorodność architektoniczna, gdzie współczesny budynek "Czarny Diament" kontrastuje z tradycyjnymi częściami. Biblioteka gromadzi bogate zbiory od średniowiecznych rękopisów po nowoczesne cyfrowe media, będąc kluczowym ośrodkiem naukowym i kulturowym Danii.</t>
-  </si>
-  <si>
-    <t>Strøget to nie tylko jedna z najdłuższych ulic handlowych dla pieszych w Europie, ale także serce tętniące życiem kultury i towarzyskości. Łącząc historyczne miejsca z nowoczesnymi sklepami oraz restauracjami, ten zabytkowy ciąg ulic tworzy unikalny krajobraz, pełen muzycznych występów na żywo i lokalnych dzieł sztuki. Idealne miejsce zarówno dla miłośników zakupów, jak i tych, którzy pragną zanurzyć się w miejską atmosferę Kopenhagi.</t>
-  </si>
-  <si>
-    <t>BUKA BAKERY to miejsce, gdzie każdego dnia od rana do wieczora można delektować się szeroką gamą wypieków i daniami do dzielenia się przy wspólnym stole. Ich charakterystyczna otwarta kuchnia i bar z blatem z miedzi zapewniają nie tylko smak, ale i wizualne doznania dla gości. Specjalnością piekarni są chleby na zakwasie i kruasany, cieszące się uznaniem odwiedzających.</t>
+    <t>The Round Tower to wyjątkowa wieża z XVII wieku, pierwotnie zbudowana jako obserwatorium astronomiczne. Znana z niezwykłej, spiralnej rampy, umożliwiającej wjazd konno na szczyt, wieża połączona jest z kościołem Trinitatis, tworząc zespół o dużej wartości historycznej.</t>
+  </si>
+  <si>
+    <t>Zamek Rosenborg, pierwotnie letnią rezydencją z 1606 roku, odtąd przechowuje najcenniejsze skarby kultury duńskiej, w tym klejnoty koronacyjne. Wewnątrz można podziwiać zachowane wnętrza z wczesnych lat XVII wieku. Otaczające go najstarsze królewskie ogrody w Danii, Kongens Have.</t>
+  </si>
+  <si>
+    <t>Christiansborg, zlokalizowany na wyspie Slotsholmen to wielofunkcyjny pałac o bogatej historii, będący sercem duńskiego życia politycznego. Mieści w swoich murach duński parlament, najwyższy sąd oraz ministerstwa, a także królewskie apartamenty wykorzystywane podczas oficjalnych uroczystości. Jego barokowa architektura i wystawne sale reprezentacyjne zdobią liczne dzieła sztuki, a pod ziemią zachowały się pozostałości historycznych zamków datujących się na XII wiek.</t>
+  </si>
+  <si>
+    <t>TorvehallerneKBH to nowoczesny, miejski targ, gdzie można znaleźć ponad 60 różnorodnych straganów oferujących świeże i lokalne produkty. Położony blisko stacji Nørreport, stał się miejscem, gdzie zarówno mieszkańcy, jak i turyści korzystają z bogatej oferty od świeżych owoców i warzyw po eleganckie desery.</t>
+  </si>
+  <si>
+    <t>Ogród Królewski, znany jako Kongens Have, otoczony jest murem zamku Rosenborg i stanowi najstarszy park w mieście. Założony na początku XVII wieku, jest miejscem, gdzie spacerują zarówno mieszkańcy, jak i turyści. Park, utrzymany w stylu renesansowym, rozciąga się na powierzchni około 12 hektarów i oferuje zadbane ogrody, aleje oraz historyczne posągi, tworząc oazę spokoju w miejskim zgiełku.</t>
+  </si>
+  <si>
+    <t>Ny Carlsberg Glyptotek to miejsce, gdzie historia i sztuka współistnieją w harmonii. Położone w sercu miasta, muzeum oferuje bogatą kolekcję rzeźb starożytnych cywilizacji śródziemnomorskich oraz dzieł sztuki francuskiej i duńskiej z XIX wieku. Centralny ogród zimowy z szklaną kopułą dodaje temu miejscu wyjątkowego uroku, tworząc idealne tło dla cennych dzieł takich mistrzów jak Rodin czy Monet.</t>
+  </si>
+  <si>
+    <t>Reffen w Kopenhadze to nie tylko targ jedzenia, ale także centrum kreatywności i lokalnej kultury. Przemieniona przestrzeń przemysłowa Refshaleøen kusi miłośników kulinarnych nowości i ekologicznych produktów, a także oferuje imprezy na żywo i warsztaty kulturalne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amager Beachpark to uroczy zakątek Kopenhagi, oferujący ponad 4 km piaszczystych plaż i lagunę. Miejsce to łączy w sobie naturę z miejskimi udogodnieniami, takimi jak kawiarnie czy tereny do sportów wodnych i lądowych, stanowiąc idealne miejsce na aktywny wypoczynek blisko centrum miasta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ogrody Frederiksberg to malowniczy zakątek Kopenhagi, który rozpościera się na 31 hektarach zieleni, łącząc stulecia historycznych zmian z barokowych trawników w romantyczne krajobrazy. Spacerując po jego krętych ścieżkach, można podziwiać jeziora, klasyczne pawilony, takie jak chińska altana, oraz bogato zdobione ogrody. </t>
+  </si>
+  <si>
+    <t>Paludan Bog &amp; Café to nie tylko kawiarnia, ale także pełna klimatycznych zakątków księgarnia. Znajdujące się w centrum miasta, przyciąga zarówno studentów, jak i turystów, oferując możliwość delektowania się kawą w otoczeniu literatury.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Dubliner jest kwintesencją irlandzkiego pubu, przyciągającego mieszkańców i turystów swoją autentyczną atmosferą i różnorodnością piw, w tym tradycyjnych irlandzkich trunków. Miejsce to jest ulubionym punktem do oglądania meczów piłkarskich i rugby, dzięki licznie rozmieszczonym ekranom i stałego repertuaru żywej muzyki, zwłaszcza irlandzkiej folku. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tivoli Food Hall, położona w sercu Kopenhagi, oferuje swoim gościom bogactwo kulinarnych doświadczeń. Wnętrze hali pełne jest stoisk z lokalnymi daniami duńskimi oraz smakami z całego świata. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasoline Grill to miejsce, które łączy w sobie prostotę z wysoką jakością, oferując jedne z najlepszych burgerów w mieście. Usytuowana w centrum miasta, burgerownia przyciąga zarówno mieszkańców, jak i turystów dzięki swojemu minimalistycznemu wnętrzu oraz naciskowi na świeże składniki. </t>
+  </si>
+  <si>
+    <t>Broens Street Food to kolorowy rynek jedzenia ulicznego, który przyciąga zarówno miejscowych mieszkańców, jak i turystów. Położony przy malowniczej promenadzie portowej, oferuje różnorodne stoiska z jedzeniem lokalnym i międzynarodowym oraz bary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ofelia Plads to miejsce, gdzie dawna przestrzeń przemysłowa ożywa jako centrum kultury i rekreacji. Położone wzdłuż malowniczego nabrzeża, przyciąga zarówno mieszkańców, jak i turystów licznymi wydarzeniami kulturalnymi, od koncertów po spektakle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kødbyens Fiskebar to renomowana restauracja serwująca dania z owoców morza, zlokalizowana w tętniącym życiem Kødbyen, czyli Miejskim Dystrykcie Mięsnym. Lokal łączy w sobie industrialny urok z nowoczesną elegancją, oferując menu oparte na lokalnych i zrównoważonych produktach. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høst to wyjątkowe miejsce, które łączy w sobie nowoczesność i tradycję skandynawskich smaków. Restauracja jest ceniona za swoje sezonowe menu, które opiera się na lokalnych składnikach i wciąż zaskakuje swoją oryginalnością. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikkeller Bar to miejsce znane miłośnikom piw rzemieślniczych. Zlokalizowany w tętniącej życiem dzielnicy Vesterbro, oferuje szeroki wybór unikalnych piw, zarówno z własnego mikrobrowaru, jak i z najlepszych browarów międzynarodowych. </t>
+  </si>
+  <si>
+    <t>Folkehuset Absalon, umiejscowione w dzielnicy Vesterbro, to miejsce, które swoim wyglądem przypomina kościół, ale w rzeczywistości pełni rolę tętniącego życiem centrum wspólnotowego. Zachęca mieszkańców i podróżników do wspólnego spędzania czasu przy długich stołach, gdzie serwowane są proste posiłki. W Absalonie przez cały tydzień odbywają się różnorodne zajęcia, od jogi po koncerty, co czyni go idealnym miejscem dla tych, którzy chcą doświadczyć duńskiego ducha "hygge".</t>
+  </si>
+  <si>
+    <t>Mad &amp; Kaffe to przytulna kawiarnia znana z nowatorskiego podejścia do śniadań i brunchy. Oferuje możliwość skomponowania własnego posiłku z różnorodnych małych dań, w tym pieczywa, serów, mięs i wegańskich opcji. Wnętrze lokalu, łączące styl rustykalny z vintage, tworzy przyjemną atmosferę, która przyciąga zarówno miejscowych, jak i turystów. Pomimo że popularność miejsca może prowadzić do długich kolejek, szczególnie w weekendy, wysoka jakość kawy i jedzenia zachęca do odwiedzin.</t>
+  </si>
+  <si>
+    <t>Kastellet, zbudowany w XVII wieku na planie gwiazdy, stanowi jeden z najlepiej zachowanych przykładów północnoeuropejskich twierdz. Obiekt służył pierwotnie celom militarnym, lecz obecnie przekształcił się w popularny park publiczny i miejsce o znaczeniu historycznym. Charakterystyczne bastiony w kształcie gwiazdy i ziemne wały twierdzy, zaprojektowane na wzór holenderskich fortyfikacji, zdobią teren, gdzie odbywają się koncerty i bezpłatne wydarzenia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ogród Biblioteki Królewskiej to miejsce, gdzie historia łączy się z naturą. Położony między wielkimi budynkami, takimi jak Biblioteka Królewska i Pałac Christiansborg, jest oazą spokoju dla mieszkańców i turystów. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bæst to restauracja, która łączy włoskie tradycje kulinarne z nordyckim naciskiem na lokalne i sezonowe produkty. Znana z nacisku na ekologiczne składniki, oferuje dania z własnego mleczarni i pieca opalanego drewnem. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juno the Bakery to kultowa, rzemieślnicza piekarnia znana z wysokiej jakości wypieków. Szczególnie cenione są tu bułeczki kardamonowe, chwalone za idealne połączenie słodyczy i korzennych nut. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hija de Sanchez to ceniona meksykańska restauracja w Kødbyen. Lokal słynie z autentycznych smaków i technik kulinarnych Meksyku, oferując różnorodne tacos, quesadillas oraz własnoręcznie przygotowywane salsy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skt. Peders Bageri to piekarnia o długiej tradycji, znana z pieczenia tradycyjnych duńskich chlebów i wypieków. Szczególnie popularna jest tu "onsdagsnegl" - cynamonowy rulon dostępny tylko w środy, który cieszy się uznaniem zarówno mieszkańców, jak i turystów. </t>
+  </si>
+  <si>
+    <t>Coffee Collective Torvehallerne oferuje wysokiej jakości kawę w sercu targowiska Torvehallerne. Kawiarnia zyskała popularność dzięki swemu nowoczesnemu, minimalistycznemu wnętrzu oraz pasjonatami światem kawy pracownikami, gotowymi podzielić się swoją wiedzą o kawie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hart Bageri w Frederiksberg to nie tylko piekarnia, ale miejscowa atrakcja kulinarna otwarta w 2018 roku. Z ofertą świeżego pieczywa na zakwasie, różnorodnych wypieków oraz starannie wyselekcjonowanej kawy i herbaty, przyciąga zwolenników zarówno lokalnych, jak i międzynarodowych smaków. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paté Paté, położone w dynamicznej dzielnicy Vesterbro, mieści się w najstarszej fabryce pasztetów miasta, co nadaje mu niepowtarzalny, historyczny urok. Restauracja oferuje menu inspirowane smakami Śródziemnomorza i Bliskiego Wschodu, promując wspólne biesiadowanie przy posiłkach. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prolog Coffee Bar to znane miejsce w dzielnicy Meatpacking District, które oferuje rzemieślniczą kawę, kanapki z lodami i inne przysmaki kawiarniane. Kawiarnia cieszy się uznaniem za znakomite espresso i miłą atmosferę wraz z miejscami do siedzenia na zewnątrz. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atelier September to kopenhaska kawiarnia, która przyciąga miłośników sztuki oraz jakościowych, naturalnych składników. Na tle historycznej architektury, lokal oferuje jasne, minimalistycznie urządzone wnętrza, stając się idealnym miejscem na poranne brunch'e z popularnym tostem z awokado. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lille Bakery to urocza kawiarnia i piekarnia, która skupia się na wykorzystaniu organicznych składników i tradycyjnych technik pieczenia. Oferuje wybór pieczywa, ciast oraz lekkich posiłków w przytulnej, rustykalnie urządzonej przestrzeni. </t>
+  </si>
+  <si>
+    <t>Killer Kebab - Vesterbro, zlokalizowany w historycznej dzielnicy czerwonych latarni, oferuje kebaby z marynowanego jagnięciny oraz chrupiące falafele podawane w chlebie na zakwasie. Oprócz tego, można tam spróbować domowych frytek z dipami i różnorodnych piw. Miejsce to, otwarte od 2020 roku, przyciąga miłośników lokalnych przysmaków, oferując przystępne ceny i krótki czas oczekiwania.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original Coffee to sieć kopenhaskich kawiarni, której historia sięga 1870 roku. Oddział na dachu Illum oferuje przyjemne wrażenia dzięki malowniczemu widokowi na miasto. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loppen, zlokalizowane w samym sercu autonomicznej dzielnicy Christiania, oferuje wyjątkowe połączenie muzyki i kultury od 1973 roku. Jego intymna atmosfera dodaje magii spotkania z artystami, a rozmaite gatunki muzyczne, od rocka po elektronikę, przyciągają miłośników prawdziwych muzycznych doznań. </t>
+  </si>
+  <si>
+    <t>Nyboder to malownicza dzielnica, znana z jednolitych, żółtych domów z XVII wieku, pierwotnie służących jako mieszkania dla personelu marynarki duńskiej. To wyjątkowe miejsce, gdzie historia spotyka codzienne życie, odsłaniając wizję królewską na organizację przestrzeni życiowej dla marynarzy. Spacer po Nyboder to jak kroki wstecz w czasie, pozwalające doświadczyć zarówno historycznego, jak i współczesnego ducha Kopenhagi.</t>
   </si>
 </sst>
 </file>
@@ -1027,13 +1886,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="21.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1081,13 +1943,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="E2">
         <v>55.673684100000003</v>
@@ -1096,25 +1958,25 @@
         <v>12.568147099999999</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="H2">
         <v>4.5</v>
       </c>
       <c r="I2">
-        <v>78198</v>
+        <v>78251</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="M2" t="s">
-        <v>139</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1122,13 +1984,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="E3">
         <v>55.692860000000003</v>
@@ -1137,25 +1999,25 @@
         <v>12.599282799999999</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="H3">
         <v>4.0999999999999996</v>
       </c>
       <c r="I3">
-        <v>25951</v>
+        <v>25978</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>117</v>
+        <v>282</v>
       </c>
       <c r="M3" t="s">
-        <v>140</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1163,13 +2025,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="E4">
         <v>55.684058800000003</v>
@@ -1178,25 +2040,25 @@
         <v>12.5930201</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="H4">
         <v>4.5</v>
       </c>
       <c r="I4">
-        <v>25802</v>
+        <v>25818</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>118</v>
+        <v>283</v>
       </c>
       <c r="M4" t="s">
-        <v>141</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1204,13 +2066,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="E5">
         <v>55.671691000000003</v>
@@ -1219,25 +2081,25 @@
         <v>12.523429</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="H5">
         <v>4.4000000000000004</v>
       </c>
       <c r="I5">
-        <v>22976</v>
+        <v>22982</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>119</v>
+        <v>284</v>
       </c>
       <c r="M5" t="s">
-        <v>142</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1245,13 +2107,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="E6">
         <v>55.681347000000002</v>
@@ -1260,25 +2122,25 @@
         <v>12.575729900000001</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="H6">
         <v>4.5</v>
       </c>
       <c r="I6">
-        <v>22808</v>
+        <v>22820</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="M6" t="s">
-        <v>143</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1286,40 +2148,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="E7">
-        <v>55.685827400000001</v>
+        <v>55.675914199999987</v>
       </c>
       <c r="F7">
-        <v>12.577268699999999</v>
+        <v>12.5691285</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="H7">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I7">
-        <v>18785</v>
+        <v>20141</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="M7" t="s">
-        <v>144</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1327,40 +2189,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="E8">
-        <v>55.685290500000001</v>
+        <v>55.685827400000001</v>
       </c>
       <c r="F8">
-        <v>12.579845199999999</v>
+        <v>12.577268699999999</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="H8">
         <v>4.5999999999999996</v>
       </c>
       <c r="I8">
-        <v>11859</v>
+        <v>18798</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>122</v>
+        <v>287</v>
       </c>
       <c r="M8" t="s">
-        <v>145</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1368,40 +2230,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="E9">
-        <v>55.674499500000003</v>
+        <v>55.676321799999997</v>
       </c>
       <c r="F9">
-        <v>12.5746442</v>
+        <v>12.5803274</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="H9">
         <v>4.5</v>
       </c>
       <c r="I9">
-        <v>11003</v>
+        <v>17849</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>123</v>
+        <v>288</v>
       </c>
       <c r="M9" t="s">
-        <v>146</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1409,40 +2271,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="E10">
-        <v>55.686556299999999</v>
+        <v>55.683689899999997</v>
       </c>
       <c r="F10">
-        <v>12.592842299999999</v>
+        <v>12.5697654</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="H10">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I10">
-        <v>5932</v>
+        <v>13436</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="M10" t="s">
-        <v>147</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1450,40 +2312,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="E11">
-        <v>55.678545999999997</v>
+        <v>55.685290500000001</v>
       </c>
       <c r="F11">
-        <v>12.575896</v>
+        <v>12.579845199999999</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="H11">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I11">
-        <v>5679</v>
+        <v>11861</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>238</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>290</v>
       </c>
       <c r="M11" t="s">
-        <v>148</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1491,40 +2353,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="E12">
-        <v>55.684904299999999</v>
+        <v>55.672980000000003</v>
       </c>
       <c r="F12">
-        <v>12.5733926</v>
+        <v>12.572543</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="H12">
         <v>4.5999999999999996</v>
       </c>
       <c r="I12">
-        <v>5617</v>
+        <v>11754</v>
       </c>
       <c r="J12" t="s">
-        <v>106</v>
+        <v>239</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>291</v>
       </c>
       <c r="M12" t="s">
-        <v>149</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1532,40 +2394,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="E13">
-        <v>55.679775999999997</v>
+        <v>55.674499500000003</v>
       </c>
       <c r="F13">
-        <v>12.5913041</v>
+        <v>12.5746442</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="H13">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I13">
-        <v>5304</v>
+        <v>11011</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>240</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>292</v>
       </c>
       <c r="M13" t="s">
-        <v>150</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1573,40 +2435,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="E14">
-        <v>55.665398099999997</v>
+        <v>55.668502399999987</v>
       </c>
       <c r="F14">
-        <v>12.5502979</v>
+        <v>12.559935899999999</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="H14">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I14">
-        <v>2575</v>
+        <v>10060</v>
       </c>
       <c r="J14" t="s">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>293</v>
       </c>
       <c r="M14" t="s">
-        <v>136</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1614,40 +2476,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="E15">
-        <v>55.6746348</v>
+        <v>55.693633299999988</v>
       </c>
       <c r="F15">
-        <v>12.5812279</v>
+        <v>12.6082318</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="H15">
         <v>4.5999999999999996</v>
       </c>
       <c r="I15">
-        <v>2210</v>
+        <v>8825</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>294</v>
       </c>
       <c r="M15" t="s">
-        <v>151</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1655,40 +2517,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="E16">
-        <v>55.6893283</v>
+        <v>55.654532499999988</v>
       </c>
       <c r="F16">
-        <v>12.5976365</v>
+        <v>12.6496067</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="H16">
         <v>4.5999999999999996</v>
       </c>
       <c r="I16">
-        <v>2170</v>
+        <v>8791</v>
       </c>
       <c r="J16" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="M16" t="s">
-        <v>152</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1696,40 +2558,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="E17">
-        <v>55.673399400000001</v>
+        <v>55.674810600000001</v>
       </c>
       <c r="F17">
-        <v>12.582658800000001</v>
+        <v>12.525476599999999</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="H17">
         <v>4.7</v>
       </c>
       <c r="I17">
-        <v>1140</v>
+        <v>6207</v>
       </c>
       <c r="J17" t="s">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c r="M17" t="s">
-        <v>153</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1737,40 +2599,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="E18">
-        <v>55.675283299999997</v>
+        <v>55.686556299999999</v>
       </c>
       <c r="F18">
-        <v>12.5701632</v>
+        <v>12.592842299999999</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="H18">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="I18">
-        <v>1089</v>
+        <v>5937</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>245</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c r="M18" t="s">
-        <v>137</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1778,40 +2640,40 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="E19">
-        <v>55.678163499999997</v>
+        <v>55.678545999999997</v>
       </c>
       <c r="F19">
-        <v>12.573362100000001</v>
+        <v>12.575896</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="H19">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="I19">
-        <v>1061</v>
+        <v>5681</v>
       </c>
       <c r="J19" t="s">
-        <v>113</v>
+        <v>246</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="M19" t="s">
-        <v>154</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1819,40 +2681,40 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="E20">
-        <v>55.676989300000002</v>
+        <v>55.684904299999999</v>
       </c>
       <c r="F20">
-        <v>12.5706632</v>
+        <v>12.5733926</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="H20">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I20">
-        <v>947</v>
+        <v>5622</v>
       </c>
       <c r="J20" t="s">
-        <v>114</v>
+        <v>247</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>134</v>
+        <v>299</v>
       </c>
       <c r="M20" t="s">
-        <v>155</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1860,40 +2722,1352 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E21">
-        <v>55.676313800000003</v>
+        <v>55.679775999999997</v>
       </c>
       <c r="F21">
-        <v>12.5699918</v>
+        <v>12.5913041</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="H21">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="I21">
-        <v>742</v>
+        <v>5310</v>
       </c>
       <c r="J21" t="s">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
+        <v>300</v>
+      </c>
+      <c r="M21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22">
+        <v>55.680391800000002</v>
+      </c>
+      <c r="F22">
+        <v>12.573249000000001</v>
+      </c>
+      <c r="G22" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22">
+        <v>4.5</v>
+      </c>
+      <c r="I22">
+        <v>5055</v>
+      </c>
+      <c r="J22" t="s">
+        <v>249</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>301</v>
+      </c>
+      <c r="M22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23">
+        <v>55.678681599999997</v>
+      </c>
+      <c r="F23">
+        <v>12.5789267</v>
+      </c>
+      <c r="G23" t="s">
+        <v>206</v>
+      </c>
+      <c r="H23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I23">
+        <v>4565</v>
+      </c>
+      <c r="J23" t="s">
+        <v>250</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>302</v>
+      </c>
+      <c r="M23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24">
+        <v>55.674297000000003</v>
+      </c>
+      <c r="F24">
+        <v>12.5653477</v>
+      </c>
+      <c r="G24" t="s">
+        <v>207</v>
+      </c>
+      <c r="H24">
+        <v>4.2</v>
+      </c>
+      <c r="I24">
+        <v>4482</v>
+      </c>
+      <c r="J24" t="s">
+        <v>251</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>303</v>
+      </c>
+      <c r="M24" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25">
+        <v>55.683268200000001</v>
+      </c>
+      <c r="F25">
+        <v>12.585051999999999</v>
+      </c>
+      <c r="G25" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25">
+        <v>4.5</v>
+      </c>
+      <c r="I25">
+        <v>4386</v>
+      </c>
+      <c r="J25" t="s">
+        <v>252</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>304</v>
+      </c>
+      <c r="M25" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26">
+        <v>55.677860699999997</v>
+      </c>
+      <c r="F26">
+        <v>12.5968798</v>
+      </c>
+      <c r="G26" t="s">
+        <v>207</v>
+      </c>
+      <c r="H26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I26">
+        <v>3921</v>
+      </c>
+      <c r="J26" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>305</v>
+      </c>
+      <c r="M26" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27">
+        <v>55.680698599999999</v>
+      </c>
+      <c r="F27">
+        <v>12.5950433</v>
+      </c>
+      <c r="G27" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I27">
+        <v>3452</v>
+      </c>
+      <c r="J27" t="s">
+        <v>254</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>306</v>
+      </c>
+      <c r="M27" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28">
+        <v>55.6678839</v>
+      </c>
+      <c r="F28">
+        <v>12.559289400000001</v>
+      </c>
+      <c r="G28" t="s">
+        <v>216</v>
+      </c>
+      <c r="H28">
+        <v>4.3</v>
+      </c>
+      <c r="I28">
+        <v>3265</v>
+      </c>
+      <c r="J28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>307</v>
+      </c>
+      <c r="M28" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29">
+        <v>55.683351799999997</v>
+      </c>
+      <c r="F29">
+        <v>12.566152799999999</v>
+      </c>
+      <c r="G29" t="s">
+        <v>217</v>
+      </c>
+      <c r="H29">
+        <v>4.7</v>
+      </c>
+      <c r="I29">
+        <v>3174</v>
+      </c>
+      <c r="J29" t="s">
+        <v>256</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>308</v>
+      </c>
+      <c r="M29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30">
+        <v>55.671912300000002</v>
+      </c>
+      <c r="F30">
+        <v>12.5575373</v>
+      </c>
+      <c r="G30" t="s">
+        <v>218</v>
+      </c>
+      <c r="H30">
+        <v>4.5</v>
+      </c>
+      <c r="I30">
+        <v>3136</v>
+      </c>
+      <c r="J30" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>309</v>
+      </c>
+      <c r="M30" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31">
+        <v>55.665398099999997</v>
+      </c>
+      <c r="F31">
+        <v>12.5502979</v>
+      </c>
+      <c r="G31" t="s">
+        <v>219</v>
+      </c>
+      <c r="H31">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I31">
+        <v>2576</v>
+      </c>
+      <c r="J31" t="s">
+        <v>258</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>310</v>
+      </c>
+      <c r="M31" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32">
+        <v>55.665937599999999</v>
+      </c>
+      <c r="F32">
+        <v>12.5503967</v>
+      </c>
+      <c r="G32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H32">
+        <v>4.5</v>
+      </c>
+      <c r="I32">
+        <v>2422</v>
+      </c>
+      <c r="J32" t="s">
+        <v>259</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>311</v>
+      </c>
+      <c r="M32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33">
+        <v>55.691375999999998</v>
+      </c>
+      <c r="F33">
+        <v>12.594301</v>
+      </c>
+      <c r="G33" t="s">
+        <v>220</v>
+      </c>
+      <c r="H33">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I33">
+        <v>2217</v>
+      </c>
+      <c r="J33" t="s">
+        <v>260</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>312</v>
+      </c>
+      <c r="M33" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34">
+        <v>55.6746348</v>
+      </c>
+      <c r="F34">
+        <v>12.5812279</v>
+      </c>
+      <c r="G34" t="s">
+        <v>204</v>
+      </c>
+      <c r="H34">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I34">
+        <v>2211</v>
+      </c>
+      <c r="J34" t="s">
+        <v>261</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>313</v>
+      </c>
+      <c r="M34" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35">
+        <v>55.6893283</v>
+      </c>
+      <c r="F35">
+        <v>12.5976365</v>
+      </c>
+      <c r="G35" t="s">
+        <v>221</v>
+      </c>
+      <c r="H35">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I35">
+        <v>2170</v>
+      </c>
+      <c r="J35" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>314</v>
+      </c>
+      <c r="M35" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36">
+        <v>55.692311699999998</v>
+      </c>
+      <c r="F36">
+        <v>12.5560779</v>
+      </c>
+      <c r="G36" t="s">
+        <v>219</v>
+      </c>
+      <c r="H36">
+        <v>4.3</v>
+      </c>
+      <c r="I36">
+        <v>2142</v>
+      </c>
+      <c r="J36" t="s">
+        <v>263</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>315</v>
+      </c>
+      <c r="M36" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37">
+        <v>55.7061815</v>
+      </c>
+      <c r="F37">
+        <v>12.581815199999999</v>
+      </c>
+      <c r="G37" t="s">
+        <v>222</v>
+      </c>
+      <c r="H37">
+        <v>4.7</v>
+      </c>
+      <c r="I37">
+        <v>2060</v>
+      </c>
+      <c r="J37" t="s">
+        <v>264</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>316</v>
+      </c>
+      <c r="M37" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38">
+        <v>55.668918699999999</v>
+      </c>
+      <c r="F38">
+        <v>12.5585193</v>
+      </c>
+      <c r="G38" t="s">
+        <v>223</v>
+      </c>
+      <c r="H38">
+        <v>4.3</v>
+      </c>
+      <c r="I38">
+        <v>1758</v>
+      </c>
+      <c r="J38" t="s">
+        <v>265</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>317</v>
+      </c>
+      <c r="M38" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39">
+        <v>55.679142499999998</v>
+      </c>
+      <c r="F39">
+        <v>12.5692086</v>
+      </c>
+      <c r="G39" t="s">
+        <v>222</v>
+      </c>
+      <c r="H39">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I39">
+        <v>1757</v>
+      </c>
+      <c r="J39" t="s">
+        <v>266</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>318</v>
+      </c>
+      <c r="M39" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
         <v>135</v>
       </c>
-      <c r="M21" t="s">
+      <c r="D40" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40">
+        <v>55.683568200000003</v>
+      </c>
+      <c r="F40">
+        <v>12.5694705</v>
+      </c>
+      <c r="G40" t="s">
+        <v>213</v>
+      </c>
+      <c r="H40">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I40">
+        <v>1453</v>
+      </c>
+      <c r="J40" t="s">
+        <v>267</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>319</v>
+      </c>
+      <c r="M40" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41">
+        <v>55.675384600000001</v>
+      </c>
+      <c r="F41">
+        <v>12.545504899999999</v>
+      </c>
+      <c r="G41" t="s">
+        <v>222</v>
+      </c>
+      <c r="H41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I41">
+        <v>1440</v>
+      </c>
+      <c r="J41" t="s">
+        <v>268</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>320</v>
+      </c>
+      <c r="M41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42">
+        <v>55.673399400000001</v>
+      </c>
+      <c r="F42">
+        <v>12.582658800000001</v>
+      </c>
+      <c r="G42" t="s">
+        <v>224</v>
+      </c>
+      <c r="H42">
+        <v>4.7</v>
+      </c>
+      <c r="I42">
+        <v>1141</v>
+      </c>
+      <c r="J42" t="s">
+        <v>269</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>321</v>
+      </c>
+      <c r="M42" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
         <v>138</v>
+      </c>
+      <c r="D43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43">
+        <v>55.6691778</v>
+      </c>
+      <c r="F43">
+        <v>12.5585798</v>
+      </c>
+      <c r="G43" t="s">
+        <v>219</v>
+      </c>
+      <c r="H43">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I43">
+        <v>1108</v>
+      </c>
+      <c r="J43" t="s">
+        <v>270</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>322</v>
+      </c>
+      <c r="M43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44">
+        <v>55.668290499999998</v>
+      </c>
+      <c r="F44">
+        <v>12.5575308</v>
+      </c>
+      <c r="G44" t="s">
+        <v>213</v>
+      </c>
+      <c r="H44">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I44">
+        <v>1073</v>
+      </c>
+      <c r="J44" t="s">
+        <v>271</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>323</v>
+      </c>
+      <c r="M44" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45">
+        <v>55.678163499999997</v>
+      </c>
+      <c r="F45">
+        <v>12.573362100000001</v>
+      </c>
+      <c r="G45" t="s">
+        <v>225</v>
+      </c>
+      <c r="H45">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I45">
+        <v>1061</v>
+      </c>
+      <c r="J45" t="s">
+        <v>272</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>324</v>
+      </c>
+      <c r="M45" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E46">
+        <v>55.681971699999998</v>
+      </c>
+      <c r="F46">
+        <v>12.5858709</v>
+      </c>
+      <c r="G46" t="s">
+        <v>222</v>
+      </c>
+      <c r="H46">
+        <v>4.5</v>
+      </c>
+      <c r="I46">
+        <v>939</v>
+      </c>
+      <c r="J46" t="s">
+        <v>273</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>325</v>
+      </c>
+      <c r="M46" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47">
+        <v>55.740532799999997</v>
+      </c>
+      <c r="F47">
+        <v>12.5780461</v>
+      </c>
+      <c r="G47" t="s">
+        <v>213</v>
+      </c>
+      <c r="H47">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I47">
+        <v>764</v>
+      </c>
+      <c r="J47" t="s">
+        <v>274</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>326</v>
+      </c>
+      <c r="M47" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48">
+        <v>55.690054799999999</v>
+      </c>
+      <c r="F48">
+        <v>12.613327099999999</v>
+      </c>
+      <c r="G48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H48">
+        <v>4.5</v>
+      </c>
+      <c r="I48">
+        <v>749</v>
+      </c>
+      <c r="J48" t="s">
+        <v>275</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>327</v>
+      </c>
+      <c r="M48" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49">
+        <v>55.676313800000003</v>
+      </c>
+      <c r="F49">
+        <v>12.5699918</v>
+      </c>
+      <c r="G49" t="s">
+        <v>226</v>
+      </c>
+      <c r="H49">
+        <v>3.8</v>
+      </c>
+      <c r="I49">
+        <v>743</v>
+      </c>
+      <c r="J49" t="s">
+        <v>276</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>328</v>
+      </c>
+      <c r="M49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50">
+        <v>55.671487199999987</v>
+      </c>
+      <c r="F50">
+        <v>12.5583752</v>
+      </c>
+      <c r="G50" t="s">
+        <v>227</v>
+      </c>
+      <c r="H50">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I50">
+        <v>634</v>
+      </c>
+      <c r="J50" t="s">
+        <v>277</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>329</v>
+      </c>
+      <c r="M50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51">
+        <v>55.679101099999997</v>
+      </c>
+      <c r="F51">
+        <v>12.579886200000001</v>
+      </c>
+      <c r="G51" t="s">
+        <v>213</v>
+      </c>
+      <c r="H51">
+        <v>4.3</v>
+      </c>
+      <c r="I51">
+        <v>632</v>
+      </c>
+      <c r="J51" t="s">
+        <v>278</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>330</v>
+      </c>
+      <c r="M51" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52">
+        <v>55.6740572</v>
+      </c>
+      <c r="F52">
+        <v>12.5973313</v>
+      </c>
+      <c r="G52" t="s">
+        <v>228</v>
+      </c>
+      <c r="H52">
+        <v>4.5</v>
+      </c>
+      <c r="I52">
+        <v>617</v>
+      </c>
+      <c r="J52" t="s">
+        <v>279</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>331</v>
+      </c>
+      <c r="M52" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53">
+        <v>55.687390499999999</v>
+      </c>
+      <c r="F53">
+        <v>12.5877816</v>
+      </c>
+      <c r="G53" t="s">
+        <v>209</v>
+      </c>
+      <c r="H53">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I53">
+        <v>523</v>
+      </c>
+      <c r="J53" t="s">
+        <v>280</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>332</v>
+      </c>
+      <c r="M53" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
